--- a/spreadsheets/Family budget monthly.xlsx
+++ b/spreadsheets/Family budget monthly.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DFD46F-AE30-418B-AA0D-3E803C565F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBD0D0F-A8C5-4C7E-BA7E-0FC6312BDFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="1620" windowWidth="17540" windowHeight="16390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6430" yWindow="2970" windowWidth="25700" windowHeight="14450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly budget report" sheetId="2" r:id="rId1"/>
@@ -19,16 +19,6 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{841E416B-1EF1-43b6-AB56-02D37102CBD5}">
-      <x15:pivotCaches>
-        <pivotCache cacheId="1" r:id="rId4"/>
-      </x15:pivotCaches>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{983426D0-5260-488c-9760-48F4B6AC55F4}">
-      <x15:pivotTableReferences>
-        <x15:pivotTableReference r:id="rId5"/>
-      </x15:pivotTableReferences>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -78,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -228,9 +218,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Actual expenses</t>
   </si>
   <si>
     <t>Total income</t>
@@ -364,16 +351,23 @@
   </si>
   <si>
     <t>Computed</t>
+  </si>
+  <si>
+    <t>Savings summary</t>
+  </si>
+  <si>
+    <t>Savings Account 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0_);[Red]\(&quot;$&quot;\ #,##0\)"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;\ #,##0.0000_);[Red]\(&quot;$&quot;\ #,##0.0000\)"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -407,12 +401,6 @@
     <font>
       <sz val="10"/>
       <color theme="1" tint="0.14999847407452621"/>
-      <name val="Franklin Gothic Book"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="9" tint="-0.499984740745262"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
     </font>
@@ -540,8 +528,15 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Franklin Gothic Medium"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,18 +564,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,9 +661,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -718,7 +701,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -730,13 +713,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -751,46 +731,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -799,38 +770,35 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -839,40 +807,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="23" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="22" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1583,8 +1572,8 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFB5DAA7"/>
       <color rgb="FF00682F"/>
-      <color rgb="FFB5DAA7"/>
       <color rgb="FFE9F4E4"/>
     </mruColors>
   </colors>
@@ -1599,966 +1588,20 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.24086253924141834"/>
-          <c:y val="3.7909031122802654E-3"/>
-          <c:w val="0.69475831860886672"/>
-          <c:h val="0.94328741638672142"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Total</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="12"/>
-              <c:pt idx="0">
-                <c:v>Pets</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Gifts and charity</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>Children</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>Personal care</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>Savings</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>Loans</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>Taxes</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>Entertainment</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>Insurance</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>Food</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>Transportation</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>Housing</c:v>
-              </c:pt>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numLit>
-              <c:formatCode>_("€"* #,##0_);_("€"* \(#,##0\);_("€"* "-"_);_(@_)</c:formatCode>
-              <c:ptCount val="12"/>
-              <c:pt idx="0">
-                <c:v>100</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>125</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>140</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>140</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>200</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>200</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>300</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>358</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>900</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>1320</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>1375</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>2702</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CA60-4805-860B-CB9DA3CA77BB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:axId val="306517048"/>
-        <c:axId val="306518688"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="306517048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="306518688"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{F40574EE-89B7-4290-83BB-5DA773EAF853}">
-            <c15:numFmt c:formatCode="General" c:sourceLinked="1"/>
-          </c:ext>
-        </c:extLst>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="306518688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_(&quot;€&quot;* #,##0_);_(&quot;€&quot;* \(#,##0\);_(&quot;€&quot;* &quot;-&quot;_);_(@_)" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="306517048"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{F40574EE-89B7-4290-83BB-5DA773EAF853}">
-            <c15:numFmt c:formatCode="_(&quot;€&quot;* #,##0_);_(&quot;€&quot;* \(#,##0\);_(&quot;€&quot;* &quot;-&quot;_);_(@_)" c:sourceLinked="1"/>
-          </c:ext>
-        </c:extLst>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="+mn-lt"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:extLst>
-    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
-      <c15:pivotSource>
-        <c15:name>[Family budget monthly.xlsx]PivotChartTable1</c15:name>
-        <c15:fmtId val="0"/>
-      </c15:pivotSource>
-      <c15:pivotOptions>
-        <c15:dropZoneFilter val="1"/>
-        <c15:dropZoneCategories val="1"/>
-        <c15:dropZoneData val="1"/>
-      </c15:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1139265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1513840</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>138222</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>57982</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>172854</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2586,8 +1629,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5016500" y="419100"/>
-          <a:ext cx="4610100" cy="3097322"/>
+          <a:off x="10944411" y="1602441"/>
+          <a:ext cx="4053363" cy="3087398"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2596,328 +1639,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2" descr="Actual expense chart">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Author" refreshedDate="44956.507181828703" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
-  <cacheSource type="external" connectionId="1">
-    <extLst>
-      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
-        <x14:sourceConnection name="ThisWorkbookDataModel"/>
-      </ext>
-    </extLst>
-  </cacheSource>
-  <cacheFields count="2">
-    <cacheField name="[TBL_MonthlyExpenses].[Category].[Category]" caption="Category" numFmtId="0" hierarchy="1" level="1">
-      <sharedItems count="12">
-        <s v="Children"/>
-        <s v="Entertainment"/>
-        <s v="Food"/>
-        <s v="Gifts and charity"/>
-        <s v="Housing"/>
-        <s v="Insurance"/>
-        <s v="Loans"/>
-        <s v="Personal care"/>
-        <s v="Pets"/>
-        <s v="Savings"/>
-        <s v="Taxes"/>
-        <s v="Transportation"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Measures].[Sum of Actual Cost]" caption="Sum of Actual Cost" numFmtId="0" hierarchy="9" level="32767"/>
-  </cacheFields>
-  <cacheHierarchies count="12">
-    <cacheHierarchy uniqueName="[TBL_MonthlyExpenses].[Description]" caption="Description" attribute="1" defaultMemberUniqueName="[TBL_MonthlyExpenses].[Description].[All]" allUniqueName="[TBL_MonthlyExpenses].[Description].[All]" dimensionUniqueName="[TBL_MonthlyExpenses]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[TBL_MonthlyExpenses].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[TBL_MonthlyExpenses].[Category].[All]" allUniqueName="[TBL_MonthlyExpenses].[Category].[All]" dimensionUniqueName="[TBL_MonthlyExpenses]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[TBL_MonthlyExpenses].[Projected cost1]" caption="Projected cost1" attribute="1" defaultMemberUniqueName="[TBL_MonthlyExpenses].[Projected cost1].[All]" allUniqueName="[TBL_MonthlyExpenses].[Projected cost1].[All]" dimensionUniqueName="[TBL_MonthlyExpenses]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[TBL_MonthlyExpenses].[Actual cost1]" caption="Actual cost1" attribute="1" defaultMemberUniqueName="[TBL_MonthlyExpenses].[Actual cost1].[All]" allUniqueName="[TBL_MonthlyExpenses].[Actual cost1].[All]" dimensionUniqueName="[TBL_MonthlyExpenses]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[TBL_MonthlyExpenses].[Difference]" caption="Difference" attribute="1" defaultMemberUniqueName="[TBL_MonthlyExpenses].[Difference].[All]" allUniqueName="[TBL_MonthlyExpenses].[Difference].[All]" dimensionUniqueName="[TBL_MonthlyExpenses]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[TBL_MonthlyExpenses].[Projected Cost]" caption="Projected Cost" attribute="1" defaultMemberUniqueName="[TBL_MonthlyExpenses].[Projected Cost].[All]" allUniqueName="[TBL_MonthlyExpenses].[Projected Cost].[All]" dimensionUniqueName="[TBL_MonthlyExpenses]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[TBL_MonthlyExpenses].[Actual Cost]" caption="Actual Cost" attribute="1" defaultMemberUniqueName="[TBL_MonthlyExpenses].[Actual Cost].[All]" allUniqueName="[TBL_MonthlyExpenses].[Actual Cost].[All]" dimensionUniqueName="[TBL_MonthlyExpenses]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count TBL_MonthlyExpenses]" caption="__XL_Count TBL_MonthlyExpenses" measure="1" displayFolder="" measureGroup="TBL_MonthlyExpenses" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Actual Cost]" caption="Sum of Actual Cost" measure="1" displayFolder="" measureGroup="TBL_MonthlyExpenses" count="0" oneField="1" hidden="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="6"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Projected Cost]" caption="Sum of Projected Cost" measure="1" displayFolder="" measureGroup="TBL_MonthlyExpenses" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="5"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Difference]" caption="Sum of Difference" measure="1" displayFolder="" measureGroup="TBL_MonthlyExpenses" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="4"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="2">
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="TBL_MonthlyExpenses" uniqueName="[TBL_MonthlyExpenses]" caption="TBL_MonthlyExpenses"/>
-  </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="TBL_MonthlyExpenses" caption="TBL_MonthlyExpenses"/>
-  </measureGroups>
-  <maps count="1">
-    <map measureGroup="0" dimension="1"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="1" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{ABF5C744-AB39-4b91-8756-CFA1BBC848D5}">
-      <x15:pivotCacheIdVersion cacheIdSupportedVersion="6" cacheIdCreatedVersion="6"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-FFFF-FFFF00000000}" name="PivotChartTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" allDrilled="1" showAll="0" sortType="ascending" defaultAttributeDrillState="1">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Actual Cost" fld="1" baseField="0" baseItem="4" numFmtId="42"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="12">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="1"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="13" columnCount="1" cacheId="1">
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>100</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>125</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>140</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>140</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>200</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>200</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>300</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>358</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>900</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>1320</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>1375</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>2702</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>7860</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-      </x15:pivotTableData>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_TEMP.xlsx!TBL_MonthlyExpenses">
-        <x15:activeTabTopLevelEntity name="[TBL_MonthlyExpenses]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3158,10 +1880,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3170,9 +1892,11 @@
     <col min="3" max="3" width="18.59765625" style="5" customWidth="1"/>
     <col min="4" max="6" width="12.59765625" style="2" customWidth="1"/>
     <col min="7" max="7" width="2.59765625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="15.59765625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.59765625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="2.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="2.59765625" style="1" customWidth="1"/>
     <col min="13" max="16" width="8.86328125" style="1" customWidth="1"/>
     <col min="17" max="16384" width="8.86328125" style="1"/>
   </cols>
@@ -3183,27 +1907,27 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="1.85">
       <c r="A3" s="10"/>
       <c r="B3" s="14"/>
-      <c r="C3" s="68" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="C3" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -3228,276 +1952,299 @@
     <row r="5" spans="1:12" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="11"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="H5" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="10"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="38" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="33" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="69" t="s">
+        <v>87</v>
+      </c>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="10"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="24">
-        <f>D9-D8</f>
-        <v>1585</v>
-      </c>
-      <c r="E7" s="24">
-        <f>E9-E8</f>
-        <v>1740</v>
-      </c>
-      <c r="F7" s="25">
+      <c r="D7" s="23">
+        <f>D9+D10-D8</f>
+        <v>1636.7001298479408</v>
+      </c>
+      <c r="E7" s="23">
+        <f>E9+E10-E8</f>
+        <v>1791.7001298479408</v>
+      </c>
+      <c r="F7" s="24">
         <f>E7-D7</f>
         <v>155</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="H7" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="68">
+        <f>Savings!F65</f>
+        <v>41911.804008200437</v>
+      </c>
+      <c r="J7" s="72">
+        <f>Savings!D65</f>
+        <v>51.700129847940623</v>
+      </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="10"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="24">
         <f>SUM(TBL_MonthlyExpenses[Projected cost])</f>
         <v>7915</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <f>SUM(TBL_MonthlyExpenses[Actual cost])</f>
         <v>7860</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <f>E8-D8</f>
         <v>-55</v>
       </c>
       <c r="G8" s="14"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
       <c r="K8" s="8"/>
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="24">
-        <f>SUM(D14:D16)</f>
+      <c r="C9" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="23">
+        <f>SUM(D15:D17)</f>
         <v>9500</v>
       </c>
-      <c r="E9" s="24">
-        <f>SUM(E14:E16)</f>
+      <c r="E9" s="23">
+        <f>SUM(E15:E17)</f>
         <v>9600</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <f>E9-D9</f>
         <v>100</v>
       </c>
       <c r="G9" s="14"/>
-      <c r="H9" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
       <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="10"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25">
-        <f>SUM(F7:F9)</f>
-        <v>200</v>
+      <c r="C10" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="23">
+        <f>$J7</f>
+        <v>51.700129847940623</v>
+      </c>
+      <c r="E10" s="23">
+        <f>$J7</f>
+        <v>51.700129847940623</v>
+      </c>
+      <c r="F10" s="24">
+        <f>E10-D10</f>
+        <v>0</v>
       </c>
       <c r="G10" s="14"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" ht="26.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="10"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24">
+        <f>SUM(F7:F10)</f>
+        <v>200</v>
+      </c>
       <c r="G11" s="14"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="10"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
       <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="10"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>4</v>
-      </c>
+      <c r="C13" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="10"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="30">
-        <v>6000</v>
-      </c>
-      <c r="E14" s="30">
-        <v>5800</v>
-      </c>
-      <c r="F14" s="31">
-        <f t="shared" ref="F14" si="0">E14-D14</f>
-        <v>-200</v>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="14"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="10"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="30">
-        <v>1000</v>
-      </c>
-      <c r="E15" s="30">
-        <v>2300</v>
-      </c>
-      <c r="F15" s="31">
-        <f>E15-D15</f>
-        <v>1300</v>
+      <c r="C15" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="26">
+        <v>6000</v>
+      </c>
+      <c r="E15" s="26">
+        <v>5800</v>
+      </c>
+      <c r="F15" s="27">
+        <f t="shared" ref="F15" si="0">E15-D15</f>
+        <v>-200</v>
       </c>
       <c r="G15" s="14"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="10"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="30">
-        <v>2500</v>
-      </c>
-      <c r="E16" s="30">
-        <v>1500</v>
-      </c>
-      <c r="F16" s="31">
+      <c r="C16" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="26">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="26">
+        <v>2300</v>
+      </c>
+      <c r="F16" s="27">
         <f>E16-D16</f>
-        <v>-1000</v>
+        <v>1300</v>
       </c>
       <c r="G16" s="14"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
       <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="10"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31">
-        <f>SUM(F14:F16)</f>
-        <v>100</v>
+      <c r="C17" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="26">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="26">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="27">
+        <f>E17-D17</f>
+        <v>-1000</v>
       </c>
       <c r="G17" s="14"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
       <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="10"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27">
+        <f>SUM(F15:F17)</f>
+        <v>100</v>
+      </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -3505,18 +2252,106 @@
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
     </row>
-    <row r="19" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+    </row>
     <row r="20" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="M20" s="49"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="44"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:F3"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter your projected income in this cell" sqref="D14:D16" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter you actual income in this cell" sqref="E14:E16" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Difference is auto calculated in this cell" sqref="F14:F16" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter your projected income in this cell" sqref="D15:D17 I6:I8" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter you actual income in this cell" sqref="E15:E17 J7:J8" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Difference is auto calculated in this cell" sqref="F15:F17" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
   </dataValidations>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3548,15 +2383,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:8" s="7" customFormat="1" ht="80.05" customHeight="1" thickTop="1" x14ac:dyDescent="1.85">
-      <c r="B2" s="33"/>
-      <c r="C2" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="2:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="8"/>
@@ -3568,39 +2403,39 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="2:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="23"/>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="8"/>
-      <c r="C5" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="46" t="s">
+      <c r="C5" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="42">
         <v>40</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="42">
         <v>40</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="42">
         <f>'Monthly expenses'!$E5-'Monthly expenses'!$F5</f>
         <v>0</v>
       </c>
@@ -3608,19 +2443,19 @@
     </row>
     <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="8"/>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="42">
         <v>0</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="42">
         <v>0</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="42">
         <f>'Monthly expenses'!$E6-'Monthly expenses'!$F6</f>
         <v>0</v>
       </c>
@@ -3628,19 +2463,19 @@
     </row>
     <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="8"/>
-      <c r="C7" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="46" t="s">
+      <c r="C7" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="42">
         <v>0</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="42">
         <v>0</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="42">
         <f>'Monthly expenses'!$E7-'Monthly expenses'!$F7</f>
         <v>0</v>
       </c>
@@ -3648,19 +2483,19 @@
     </row>
     <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="8"/>
-      <c r="C8" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="46" t="s">
+      <c r="C8" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="42">
         <v>100</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="42">
         <v>100</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="42">
         <f>'Monthly expenses'!$E8-'Monthly expenses'!$F8</f>
         <v>0</v>
       </c>
@@ -3668,19 +2503,19 @@
     </row>
     <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="8"/>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="42">
         <v>50</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="42">
         <v>40</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G9" s="42">
         <f>'Monthly expenses'!$E9-'Monthly expenses'!$F9</f>
         <v>10</v>
       </c>
@@ -3688,19 +2523,19 @@
     </row>
     <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="8"/>
-      <c r="C10" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="46" t="s">
+      <c r="C10" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="42">
         <v>200</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="42">
         <v>150</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="42">
         <f>'Monthly expenses'!$E10-'Monthly expenses'!$F10</f>
         <v>50</v>
       </c>
@@ -3708,19 +2543,19 @@
     </row>
     <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="8"/>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="42">
         <v>50</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="42">
         <v>28</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="42">
         <f>'Monthly expenses'!$E11-'Monthly expenses'!$F11</f>
         <v>22</v>
       </c>
@@ -3728,19 +2563,19 @@
     </row>
     <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="8"/>
-      <c r="C12" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="46" t="s">
+      <c r="C12" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="42">
         <v>50</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="42">
         <v>30</v>
       </c>
-      <c r="G12" s="47">
+      <c r="G12" s="42">
         <f>'Monthly expenses'!$E12-'Monthly expenses'!$F12</f>
         <v>20</v>
       </c>
@@ -3748,19 +2583,19 @@
     </row>
     <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="8"/>
-      <c r="C13" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="46" t="s">
+      <c r="C13" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="42">
         <v>0</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="42">
         <v>40</v>
       </c>
-      <c r="G13" s="47">
+      <c r="G13" s="42">
         <f>'Monthly expenses'!$E13-'Monthly expenses'!$F13</f>
         <v>-40</v>
       </c>
@@ -3768,19 +2603,19 @@
     </row>
     <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="8"/>
-      <c r="C14" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="46" t="s">
+      <c r="C14" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="42">
         <v>20</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="42">
         <v>50</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="42">
         <f>'Monthly expenses'!$E14-'Monthly expenses'!$F14</f>
         <v>-30</v>
       </c>
@@ -3788,19 +2623,19 @@
     </row>
     <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="8"/>
-      <c r="C15" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="46" t="s">
+      <c r="C15" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="42">
         <v>30</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="42">
         <v>20</v>
       </c>
-      <c r="G15" s="47">
+      <c r="G15" s="42">
         <f>'Monthly expenses'!$E15-'Monthly expenses'!$F15</f>
         <v>10</v>
       </c>
@@ -3808,19 +2643,19 @@
     </row>
     <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="8"/>
-      <c r="C16" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="46" t="s">
+      <c r="C16" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="42">
         <v>1000</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="42">
         <v>1200</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="42">
         <f>'Monthly expenses'!$E16-'Monthly expenses'!$F16</f>
         <v>-200</v>
       </c>
@@ -3828,19 +2663,19 @@
     </row>
     <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="8"/>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="42">
         <v>100</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="42">
         <v>120</v>
       </c>
-      <c r="G17" s="47">
+      <c r="G17" s="42">
         <f>'Monthly expenses'!$E17-'Monthly expenses'!$F17</f>
         <v>-20</v>
       </c>
@@ -3848,19 +2683,19 @@
     </row>
     <row r="18" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="8"/>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="47">
+      <c r="D18" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="42">
         <v>75</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="42">
         <v>100</v>
       </c>
-      <c r="G18" s="47">
+      <c r="G18" s="42">
         <f>'Monthly expenses'!$E18-'Monthly expenses'!$F18</f>
         <v>-25</v>
       </c>
@@ -3868,19 +2703,19 @@
     </row>
     <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="8"/>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="47">
+      <c r="D19" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="42">
         <v>25</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="42">
         <v>25</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="42">
         <f>'Monthly expenses'!$E19-'Monthly expenses'!$F19</f>
         <v>0</v>
       </c>
@@ -3888,15 +2723,15 @@
     </row>
     <row r="20" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="8"/>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47">
+      <c r="D20" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42">
         <f>'Monthly expenses'!$E20-'Monthly expenses'!$F20</f>
         <v>0</v>
       </c>
@@ -3904,15 +2739,15 @@
     </row>
     <row r="21" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="8"/>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47">
+      <c r="D21" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42">
         <f>'Monthly expenses'!$E21-'Monthly expenses'!$F21</f>
         <v>0</v>
       </c>
@@ -3920,19 +2755,19 @@
     </row>
     <row r="22" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="8"/>
-      <c r="C22" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="46" t="s">
+      <c r="C22" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E22" s="42">
         <v>100</v>
       </c>
-      <c r="F22" s="47">
+      <c r="F22" s="42">
         <v>100</v>
       </c>
-      <c r="G22" s="47">
+      <c r="G22" s="42">
         <f>'Monthly expenses'!$E22-'Monthly expenses'!$F22</f>
         <v>0</v>
       </c>
@@ -3940,19 +2775,19 @@
     </row>
     <row r="23" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="8"/>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="42">
         <v>45</v>
       </c>
-      <c r="F23" s="47">
+      <c r="F23" s="42">
         <v>50</v>
       </c>
-      <c r="G23" s="47">
+      <c r="G23" s="42">
         <f>'Monthly expenses'!$E23-'Monthly expenses'!$F23</f>
         <v>-5</v>
       </c>
@@ -3960,19 +2795,19 @@
     </row>
     <row r="24" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="8"/>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="47">
+      <c r="E24" s="42">
         <v>300</v>
       </c>
-      <c r="F24" s="47">
+      <c r="F24" s="42">
         <v>400</v>
       </c>
-      <c r="G24" s="47">
+      <c r="G24" s="42">
         <f>'Monthly expenses'!$E24-'Monthly expenses'!$F24</f>
         <v>-100</v>
       </c>
@@ -3980,17 +2815,17 @@
     </row>
     <row r="25" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="8"/>
-      <c r="C25" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="46" t="s">
+      <c r="C25" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="42">
         <v>200</v>
       </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47">
+      <c r="F25" s="42"/>
+      <c r="G25" s="42">
         <f>'Monthly expenses'!$E25-'Monthly expenses'!$F25</f>
         <v>200</v>
       </c>
@@ -3998,19 +2833,19 @@
     </row>
     <row r="26" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="8"/>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="47">
+      <c r="E26" s="42">
         <v>200</v>
       </c>
-      <c r="F26" s="47">
+      <c r="F26" s="42">
         <v>150</v>
       </c>
-      <c r="G26" s="47">
+      <c r="G26" s="42">
         <f>'Monthly expenses'!$E26-'Monthly expenses'!$F26</f>
         <v>50</v>
       </c>
@@ -4018,19 +2853,19 @@
     </row>
     <row r="27" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="8"/>
-      <c r="C27" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="46" t="s">
+      <c r="C27" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="42">
         <v>1700</v>
       </c>
-      <c r="F27" s="47">
+      <c r="F27" s="42">
         <v>1700</v>
       </c>
-      <c r="G27" s="47">
+      <c r="G27" s="42">
         <f>'Monthly expenses'!$E27-'Monthly expenses'!$F27</f>
         <v>0</v>
       </c>
@@ -4038,15 +2873,15 @@
     </row>
     <row r="28" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="8"/>
-      <c r="C28" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="46" t="s">
+      <c r="C28" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47">
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42">
         <f>'Monthly expenses'!$E28-'Monthly expenses'!$F28</f>
         <v>0</v>
       </c>
@@ -4054,19 +2889,19 @@
     </row>
     <row r="29" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="8"/>
-      <c r="C29" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="46" t="s">
+      <c r="C29" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E29" s="42">
         <v>100</v>
       </c>
-      <c r="F29" s="47">
+      <c r="F29" s="42">
         <v>100</v>
       </c>
-      <c r="G29" s="47">
+      <c r="G29" s="42">
         <f>'Monthly expenses'!$E29-'Monthly expenses'!$F29</f>
         <v>0</v>
       </c>
@@ -4074,19 +2909,19 @@
     </row>
     <row r="30" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="8"/>
-      <c r="C30" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="46" t="s">
+      <c r="C30" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="47">
+      <c r="E30" s="42">
         <v>60</v>
       </c>
-      <c r="F30" s="47">
+      <c r="F30" s="42">
         <v>60</v>
       </c>
-      <c r="G30" s="47">
+      <c r="G30" s="42">
         <f>'Monthly expenses'!$E30-'Monthly expenses'!$F30</f>
         <v>0</v>
       </c>
@@ -4094,19 +2929,19 @@
     </row>
     <row r="31" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="8"/>
-      <c r="C31" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="46" t="s">
+      <c r="C31" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="47">
+      <c r="E31" s="42">
         <v>35</v>
       </c>
-      <c r="F31" s="47">
+      <c r="F31" s="42">
         <v>39</v>
       </c>
-      <c r="G31" s="47">
+      <c r="G31" s="42">
         <f>'Monthly expenses'!$E31-'Monthly expenses'!$F31</f>
         <v>-4</v>
       </c>
@@ -4114,19 +2949,19 @@
     </row>
     <row r="32" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="8"/>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="47">
+      <c r="E32" s="42">
         <v>40</v>
       </c>
-      <c r="F32" s="47">
+      <c r="F32" s="42">
         <v>55</v>
       </c>
-      <c r="G32" s="47">
+      <c r="G32" s="42">
         <f>'Monthly expenses'!$E32-'Monthly expenses'!$F32</f>
         <v>-15</v>
       </c>
@@ -4134,19 +2969,19 @@
     </row>
     <row r="33" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="8"/>
-      <c r="C33" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="46" t="s">
+      <c r="C33" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="47">
+      <c r="E33" s="42">
         <v>25</v>
       </c>
-      <c r="F33" s="47">
+      <c r="F33" s="42">
         <v>22</v>
       </c>
-      <c r="G33" s="47">
+      <c r="G33" s="42">
         <f>'Monthly expenses'!$E33-'Monthly expenses'!$F33</f>
         <v>3</v>
       </c>
@@ -4154,19 +2989,19 @@
     </row>
     <row r="34" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="8"/>
-      <c r="C34" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="46" t="s">
+      <c r="C34" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="47">
+      <c r="E34" s="42">
         <v>25</v>
       </c>
-      <c r="F34" s="47">
+      <c r="F34" s="42">
         <v>26</v>
       </c>
-      <c r="G34" s="47">
+      <c r="G34" s="42">
         <f>'Monthly expenses'!$E34-'Monthly expenses'!$F34</f>
         <v>-1</v>
       </c>
@@ -4174,19 +3009,19 @@
     </row>
     <row r="35" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="8"/>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="46" t="s">
+      <c r="D35" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="47">
+      <c r="E35" s="42">
         <v>400</v>
       </c>
-      <c r="F35" s="47">
+      <c r="F35" s="42">
         <v>400</v>
       </c>
-      <c r="G35" s="47">
+      <c r="G35" s="42">
         <f>'Monthly expenses'!$E35-'Monthly expenses'!$F35</f>
         <v>0</v>
       </c>
@@ -4194,19 +3029,19 @@
     </row>
     <row r="36" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="8"/>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="47">
+      <c r="E36" s="42">
         <v>400</v>
       </c>
-      <c r="F36" s="47">
+      <c r="F36" s="42">
         <v>400</v>
       </c>
-      <c r="G36" s="47">
+      <c r="G36" s="42">
         <f>'Monthly expenses'!$E36-'Monthly expenses'!$F36</f>
         <v>0</v>
       </c>
@@ -4214,19 +3049,19 @@
     </row>
     <row r="37" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="8"/>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="47">
+      <c r="E37" s="42">
         <v>100</v>
       </c>
-      <c r="F37" s="47">
+      <c r="F37" s="42">
         <v>100</v>
       </c>
-      <c r="G37" s="47">
+      <c r="G37" s="42">
         <f>'Monthly expenses'!$E37-'Monthly expenses'!$F37</f>
         <v>0</v>
       </c>
@@ -4234,19 +3069,19 @@
     </row>
     <row r="38" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="8"/>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="47">
+      <c r="E38" s="42">
         <v>200</v>
       </c>
-      <c r="F38" s="47">
+      <c r="F38" s="42">
         <v>200</v>
       </c>
-      <c r="G38" s="47">
+      <c r="G38" s="42">
         <f>'Monthly expenses'!$E38-'Monthly expenses'!$F38</f>
         <v>0</v>
       </c>
@@ -4254,15 +3089,15 @@
     </row>
     <row r="39" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="8"/>
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47">
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42">
         <f>'Monthly expenses'!$E39-'Monthly expenses'!$F39</f>
         <v>0</v>
       </c>
@@ -4270,15 +3105,15 @@
     </row>
     <row r="40" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="8"/>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47">
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42">
         <f>'Monthly expenses'!$E40-'Monthly expenses'!$F40</f>
         <v>0</v>
       </c>
@@ -4286,15 +3121,15 @@
     </row>
     <row r="41" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="8"/>
-      <c r="C41" s="46" t="s">
+      <c r="C41" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="46" t="s">
+      <c r="D41" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47">
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42">
         <f>'Monthly expenses'!$E41-'Monthly expenses'!$F41</f>
         <v>0</v>
       </c>
@@ -4302,15 +3137,15 @@
     </row>
     <row r="42" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="8"/>
-      <c r="C42" s="46" t="s">
+      <c r="C42" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="46" t="s">
+      <c r="D42" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47">
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42">
         <f>'Monthly expenses'!$E42-'Monthly expenses'!$F42</f>
         <v>0</v>
       </c>
@@ -4318,19 +3153,19 @@
     </row>
     <row r="43" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="8"/>
-      <c r="C43" s="46" t="s">
+      <c r="C43" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43" s="47">
+      <c r="D43" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="42">
         <v>150</v>
       </c>
-      <c r="F43" s="47">
+      <c r="F43" s="42">
         <v>140</v>
       </c>
-      <c r="G43" s="47">
+      <c r="G43" s="42">
         <f>'Monthly expenses'!$E43-'Monthly expenses'!$F43</f>
         <v>10</v>
       </c>
@@ -4338,15 +3173,15 @@
     </row>
     <row r="44" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="8"/>
-      <c r="C44" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47">
+      <c r="C44" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42">
         <f>'Monthly expenses'!$E44-'Monthly expenses'!$F44</f>
         <v>0</v>
       </c>
@@ -4354,15 +3189,15 @@
     </row>
     <row r="45" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="8"/>
-      <c r="C45" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47">
+      <c r="C45" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42">
         <f>'Monthly expenses'!$E45-'Monthly expenses'!$F45</f>
         <v>0</v>
       </c>
@@ -4370,15 +3205,15 @@
     </row>
     <row r="46" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="8"/>
-      <c r="C46" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47">
+      <c r="C46" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42">
         <f>'Monthly expenses'!$E46-'Monthly expenses'!$F46</f>
         <v>0</v>
       </c>
@@ -4386,15 +3221,15 @@
     </row>
     <row r="47" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="8"/>
-      <c r="C47" s="46" t="s">
+      <c r="C47" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47">
+      <c r="D47" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42">
         <f>'Monthly expenses'!$E47-'Monthly expenses'!$F47</f>
         <v>0</v>
       </c>
@@ -4402,19 +3237,19 @@
     </row>
     <row r="48" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="8"/>
-      <c r="C48" s="46" t="s">
+      <c r="C48" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="46" t="s">
+      <c r="D48" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="47">
+      <c r="E48" s="42">
         <v>150</v>
       </c>
-      <c r="F48" s="47">
+      <c r="F48" s="42">
         <v>75</v>
       </c>
-      <c r="G48" s="47">
+      <c r="G48" s="42">
         <f>'Monthly expenses'!$E48-'Monthly expenses'!$F48</f>
         <v>75</v>
       </c>
@@ -4422,19 +3257,19 @@
     </row>
     <row r="49" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="8"/>
-      <c r="C49" s="46" t="s">
+      <c r="C49" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="46" t="s">
+      <c r="D49" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="47">
+      <c r="E49" s="42">
         <v>20</v>
       </c>
-      <c r="F49" s="47">
+      <c r="F49" s="42">
         <v>25</v>
       </c>
-      <c r="G49" s="47">
+      <c r="G49" s="42">
         <f>'Monthly expenses'!$E49-'Monthly expenses'!$F49</f>
         <v>-5</v>
       </c>
@@ -4442,15 +3277,15 @@
     </row>
     <row r="50" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="8"/>
-      <c r="C50" s="46" t="s">
+      <c r="C50" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="46" t="s">
+      <c r="D50" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47">
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42">
         <f>'Monthly expenses'!$E50-'Monthly expenses'!$F50</f>
         <v>0</v>
       </c>
@@ -4458,15 +3293,15 @@
     </row>
     <row r="51" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="8"/>
-      <c r="C51" s="46" t="s">
+      <c r="C51" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="46" t="s">
+      <c r="D51" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47">
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42">
         <f>'Monthly expenses'!$E51-'Monthly expenses'!$F51</f>
         <v>0</v>
       </c>
@@ -4474,19 +3309,19 @@
     </row>
     <row r="52" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="8"/>
-      <c r="C52" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="D52" s="46" t="s">
+      <c r="C52" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="47">
+      <c r="E52" s="42">
         <v>200</v>
       </c>
-      <c r="F52" s="47">
+      <c r="F52" s="42">
         <v>200</v>
       </c>
-      <c r="G52" s="47">
+      <c r="G52" s="42">
         <f>'Monthly expenses'!$E52-'Monthly expenses'!$F52</f>
         <v>0</v>
       </c>
@@ -4494,15 +3329,15 @@
     </row>
     <row r="53" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="8"/>
-      <c r="C53" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53" s="46" t="s">
+      <c r="C53" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47">
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42">
         <f>'Monthly expenses'!$E53-'Monthly expenses'!$F53</f>
         <v>0</v>
       </c>
@@ -4510,19 +3345,19 @@
     </row>
     <row r="54" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="8"/>
-      <c r="C54" s="46" t="s">
+      <c r="C54" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D54" s="46" t="s">
+      <c r="D54" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="E54" s="47">
+      <c r="E54" s="42">
         <v>300</v>
       </c>
-      <c r="F54" s="47">
+      <c r="F54" s="42">
         <v>300</v>
       </c>
-      <c r="G54" s="47">
+      <c r="G54" s="42">
         <f>'Monthly expenses'!$E54-'Monthly expenses'!$F54</f>
         <v>0</v>
       </c>
@@ -4530,15 +3365,15 @@
     </row>
     <row r="55" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="8"/>
-      <c r="C55" s="46" t="s">
+      <c r="C55" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47">
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42">
         <f>'Monthly expenses'!$E55-'Monthly expenses'!$F55</f>
         <v>0</v>
       </c>
@@ -4546,15 +3381,15 @@
     </row>
     <row r="56" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="8"/>
-      <c r="C56" s="46" t="s">
+      <c r="C56" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="46" t="s">
+      <c r="D56" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47">
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42">
         <f>'Monthly expenses'!$E56-'Monthly expenses'!$F56</f>
         <v>0</v>
       </c>
@@ -4562,19 +3397,19 @@
     </row>
     <row r="57" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="8"/>
-      <c r="C57" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="D57" s="46" t="s">
+      <c r="C57" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E57" s="47">
+      <c r="E57" s="42">
         <v>100</v>
       </c>
-      <c r="F57" s="47">
+      <c r="F57" s="42">
         <v>150</v>
       </c>
-      <c r="G57" s="47">
+      <c r="G57" s="42">
         <f>'Monthly expenses'!$E57-'Monthly expenses'!$F57</f>
         <v>-50</v>
       </c>
@@ -4582,19 +3417,19 @@
     </row>
     <row r="58" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="8"/>
-      <c r="C58" s="46" t="s">
+      <c r="C58" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="D58" s="46" t="s">
+      <c r="D58" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E58" s="47">
+      <c r="E58" s="42">
         <v>450</v>
       </c>
-      <c r="F58" s="47">
+      <c r="F58" s="42">
         <v>400</v>
       </c>
-      <c r="G58" s="47">
+      <c r="G58" s="42">
         <f>'Monthly expenses'!$E58-'Monthly expenses'!$F58</f>
         <v>50</v>
       </c>
@@ -4602,19 +3437,19 @@
     </row>
     <row r="59" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="8"/>
-      <c r="C59" s="46" t="s">
+      <c r="C59" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D59" s="46" t="s">
+      <c r="D59" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E59" s="47">
+      <c r="E59" s="42">
         <v>300</v>
       </c>
-      <c r="F59" s="47">
+      <c r="F59" s="42">
         <v>300</v>
       </c>
-      <c r="G59" s="47">
+      <c r="G59" s="42">
         <f>'Monthly expenses'!$E59-'Monthly expenses'!$F59</f>
         <v>0</v>
       </c>
@@ -4622,19 +3457,19 @@
     </row>
     <row r="60" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="8"/>
-      <c r="C60" s="46" t="s">
+      <c r="C60" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="46" t="s">
+      <c r="D60" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E60" s="47">
+      <c r="E60" s="42">
         <v>25</v>
       </c>
-      <c r="F60" s="47">
+      <c r="F60" s="42">
         <v>25</v>
       </c>
-      <c r="G60" s="47">
+      <c r="G60" s="42">
         <f>'Monthly expenses'!$E60-'Monthly expenses'!$F60</f>
         <v>0</v>
       </c>
@@ -4642,19 +3477,19 @@
     </row>
     <row r="61" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="8"/>
-      <c r="C61" s="46" t="s">
+      <c r="C61" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="46" t="s">
+      <c r="D61" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="47">
+      <c r="E61" s="42">
         <v>100</v>
       </c>
-      <c r="F61" s="47">
+      <c r="F61" s="42">
         <v>50</v>
       </c>
-      <c r="G61" s="47">
+      <c r="G61" s="42">
         <f>'Monthly expenses'!$E61-'Monthly expenses'!$F61</f>
         <v>50</v>
       </c>
@@ -4662,15 +3497,15 @@
     </row>
     <row r="62" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="8"/>
-      <c r="C62" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D62" s="46" t="s">
+      <c r="C62" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47">
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42">
         <f>'Monthly expenses'!$E62-'Monthly expenses'!$F62</f>
         <v>0</v>
       </c>
@@ -4678,19 +3513,19 @@
     </row>
     <row r="63" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="8"/>
-      <c r="C63" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="D63" s="46" t="s">
+      <c r="C63" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E63" s="47">
+      <c r="E63" s="42">
         <v>450</v>
       </c>
-      <c r="F63" s="47">
+      <c r="F63" s="42">
         <v>450</v>
       </c>
-      <c r="G63" s="47">
+      <c r="G63" s="42">
         <f>'Monthly expenses'!$E63-'Monthly expenses'!$F63</f>
         <v>0</v>
       </c>
@@ -4764,8 +3599,8 @@
   </sheetPr>
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A57" zoomScale="107" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -4781,1190 +3616,1190 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="2" spans="2:10" ht="78" customHeight="1" thickTop="1" x14ac:dyDescent="1.85">
-      <c r="B2" s="64"/>
-      <c r="C2" s="65" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="64"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="56"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="56"/>
-      <c r="C4" s="60" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="E4" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="56"/>
-      <c r="C5" s="54">
+      <c r="B5" s="51"/>
+      <c r="C5" s="49">
         <v>44256</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55">
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50">
         <v>10000</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="I5" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="J5" s="50"/>
+      <c r="G5" s="54"/>
+      <c r="I5" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="45"/>
     </row>
     <row r="6" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="56"/>
-      <c r="C6" s="54">
+      <c r="B6" s="51"/>
+      <c r="C6" s="49">
         <v>44287</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="50">
         <f t="shared" ref="D6:D37" si="0">$J$9*F5</f>
         <v>12.5</v>
       </c>
-      <c r="E6" s="55">
-        <v>500</v>
-      </c>
-      <c r="F6" s="55">
+      <c r="E6" s="50">
+        <v>500</v>
+      </c>
+      <c r="F6" s="50">
         <f>F5+D6+E6</f>
         <v>10512.5</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="I6" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" s="52">
+      <c r="G6" s="51"/>
+      <c r="I6" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="47">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="56"/>
-      <c r="C7" s="54">
+      <c r="B7" s="51"/>
+      <c r="C7" s="49">
         <v>44317</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="50">
         <f t="shared" si="0"/>
         <v>13.140625</v>
       </c>
-      <c r="E7" s="55">
-        <v>500</v>
-      </c>
-      <c r="F7" s="55">
+      <c r="E7" s="50">
+        <v>500</v>
+      </c>
+      <c r="F7" s="50">
         <f t="shared" ref="F7:F62" si="1">F6+D7+E7</f>
         <v>11025.640625</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="I7" s="50"/>
+      <c r="G7" s="51"/>
+      <c r="I7" s="45"/>
     </row>
     <row r="8" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="56"/>
-      <c r="C8" s="54">
+      <c r="B8" s="51"/>
+      <c r="C8" s="49">
         <v>44348</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="50">
         <f t="shared" si="0"/>
         <v>13.78205078125</v>
       </c>
-      <c r="E8" s="55">
-        <v>500</v>
-      </c>
-      <c r="F8" s="55">
+      <c r="E8" s="50">
+        <v>500</v>
+      </c>
+      <c r="F8" s="50">
         <f t="shared" si="1"/>
         <v>11539.42267578125</v>
       </c>
-      <c r="G8" s="56"/>
-      <c r="I8" s="51" t="s">
-        <v>94</v>
+      <c r="G8" s="51"/>
+      <c r="I8" s="46" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="56"/>
-      <c r="C9" s="54">
+      <c r="B9" s="51"/>
+      <c r="C9" s="49">
         <v>44378</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="50">
         <f t="shared" si="0"/>
         <v>14.424278344726563</v>
       </c>
-      <c r="E9" s="55">
-        <v>500</v>
-      </c>
-      <c r="F9" s="55">
+      <c r="E9" s="50">
+        <v>500</v>
+      </c>
+      <c r="F9" s="50">
         <f t="shared" si="1"/>
         <v>12053.846954125976</v>
       </c>
-      <c r="G9" s="56"/>
-      <c r="I9" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="53">
+      <c r="G9" s="51"/>
+      <c r="I9" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="48">
         <f>J6/12</f>
         <v>1.25E-3</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="56"/>
-      <c r="C10" s="54">
+      <c r="B10" s="51"/>
+      <c r="C10" s="49">
         <v>44409</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="50">
         <f t="shared" si="0"/>
         <v>15.067308692657472</v>
       </c>
-      <c r="E10" s="55">
-        <v>500</v>
-      </c>
-      <c r="F10" s="55">
+      <c r="E10" s="50">
+        <v>500</v>
+      </c>
+      <c r="F10" s="50">
         <f t="shared" si="1"/>
         <v>12568.914262818635</v>
       </c>
-      <c r="G10" s="56"/>
-      <c r="J10" s="48"/>
+      <c r="G10" s="51"/>
+      <c r="J10" s="43"/>
     </row>
     <row r="11" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="56"/>
-      <c r="C11" s="54">
+      <c r="B11" s="51"/>
+      <c r="C11" s="49">
         <v>44440</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="50">
         <f t="shared" si="0"/>
         <v>15.711142828523293</v>
       </c>
-      <c r="E11" s="55">
-        <v>500</v>
-      </c>
-      <c r="F11" s="55">
+      <c r="E11" s="50">
+        <v>500</v>
+      </c>
+      <c r="F11" s="50">
         <f t="shared" si="1"/>
         <v>13084.625405647157</v>
       </c>
-      <c r="G11" s="56"/>
-      <c r="I11" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="53">
+      <c r="G11" s="51"/>
+      <c r="I11" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="48">
         <f>SUM(E5:E65)</f>
         <v>30000</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="56"/>
-      <c r="C12" s="54">
+      <c r="B12" s="51"/>
+      <c r="C12" s="49">
         <v>44470</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="50">
         <f t="shared" si="0"/>
         <v>16.355781757058946</v>
       </c>
-      <c r="E12" s="55">
-        <v>500</v>
-      </c>
-      <c r="F12" s="55">
+      <c r="E12" s="50">
+        <v>500</v>
+      </c>
+      <c r="F12" s="50">
         <f t="shared" si="1"/>
         <v>13600.981187404215</v>
       </c>
-      <c r="G12" s="56"/>
-      <c r="I12" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" s="53">
+      <c r="G12" s="51"/>
+      <c r="I12" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="48">
         <f>F65-F5-J11</f>
         <v>1911.8040082004372</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="56"/>
-      <c r="C13" s="54">
+      <c r="B13" s="51"/>
+      <c r="C13" s="49">
         <v>44501</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="50">
         <f t="shared" si="0"/>
         <v>17.00122648425527</v>
       </c>
-      <c r="E13" s="55">
-        <v>500</v>
-      </c>
-      <c r="F13" s="55">
+      <c r="E13" s="50">
+        <v>500</v>
+      </c>
+      <c r="F13" s="50">
         <f t="shared" si="1"/>
         <v>14117.982413888471</v>
       </c>
-      <c r="G13" s="56"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="56"/>
-      <c r="C14" s="54">
+      <c r="B14" s="51"/>
+      <c r="C14" s="49">
         <v>44531</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="50">
         <f t="shared" si="0"/>
         <v>17.647478017360587</v>
       </c>
-      <c r="E14" s="55">
-        <v>500</v>
-      </c>
-      <c r="F14" s="55">
+      <c r="E14" s="50">
+        <v>500</v>
+      </c>
+      <c r="F14" s="50">
         <f t="shared" si="1"/>
         <v>14635.629891905832</v>
       </c>
-      <c r="G14" s="56"/>
+      <c r="G14" s="51"/>
     </row>
     <row r="15" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="56"/>
-      <c r="C15" s="54">
+      <c r="B15" s="51"/>
+      <c r="C15" s="49">
         <v>44562</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="50">
         <f t="shared" si="0"/>
         <v>18.294537364882292</v>
       </c>
-      <c r="E15" s="55">
-        <v>500</v>
-      </c>
-      <c r="F15" s="55">
+      <c r="E15" s="50">
+        <v>500</v>
+      </c>
+      <c r="F15" s="50">
         <f t="shared" si="1"/>
         <v>15153.924429270714</v>
       </c>
-      <c r="G15" s="56"/>
+      <c r="G15" s="51"/>
     </row>
     <row r="16" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="56"/>
-      <c r="C16" s="54">
+      <c r="B16" s="51"/>
+      <c r="C16" s="49">
         <v>44593</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="50">
         <f t="shared" si="0"/>
         <v>18.942405536588392</v>
       </c>
-      <c r="E16" s="55">
-        <v>500</v>
-      </c>
-      <c r="F16" s="55">
+      <c r="E16" s="50">
+        <v>500</v>
+      </c>
+      <c r="F16" s="50">
         <f t="shared" si="1"/>
         <v>15672.866834807302</v>
       </c>
-      <c r="G16" s="56"/>
+      <c r="G16" s="51"/>
     </row>
     <row r="17" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="56"/>
-      <c r="C17" s="54">
+      <c r="B17" s="51"/>
+      <c r="C17" s="49">
         <v>44621</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="50">
         <f t="shared" si="0"/>
         <v>19.591083543509129</v>
       </c>
-      <c r="E17" s="55">
-        <v>500</v>
-      </c>
-      <c r="F17" s="55">
+      <c r="E17" s="50">
+        <v>500</v>
+      </c>
+      <c r="F17" s="50">
         <f t="shared" si="1"/>
         <v>16192.457918350812</v>
       </c>
-      <c r="G17" s="56"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="56"/>
-      <c r="C18" s="54">
+      <c r="B18" s="51"/>
+      <c r="C18" s="49">
         <v>44652</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="50">
         <f t="shared" si="0"/>
         <v>20.240572397938514</v>
       </c>
-      <c r="E18" s="55">
-        <v>500</v>
-      </c>
-      <c r="F18" s="55">
+      <c r="E18" s="50">
+        <v>500</v>
+      </c>
+      <c r="F18" s="50">
         <f t="shared" si="1"/>
         <v>16712.698490748749</v>
       </c>
-      <c r="G18" s="56"/>
+      <c r="G18" s="51"/>
     </row>
     <row r="19" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="56"/>
-      <c r="C19" s="54">
+      <c r="B19" s="51"/>
+      <c r="C19" s="49">
         <v>44682</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="50">
         <f t="shared" si="0"/>
         <v>20.890873113435937</v>
       </c>
-      <c r="E19" s="55">
-        <v>500</v>
-      </c>
-      <c r="F19" s="55">
+      <c r="E19" s="50">
+        <v>500</v>
+      </c>
+      <c r="F19" s="50">
         <f t="shared" si="1"/>
         <v>17233.589363862186</v>
       </c>
-      <c r="G19" s="56"/>
+      <c r="G19" s="51"/>
     </row>
     <row r="20" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="56"/>
-      <c r="C20" s="54">
+      <c r="B20" s="51"/>
+      <c r="C20" s="49">
         <v>44713</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="50">
         <f t="shared" si="0"/>
         <v>21.541986704827732</v>
       </c>
-      <c r="E20" s="55">
-        <v>500</v>
-      </c>
-      <c r="F20" s="55">
+      <c r="E20" s="50">
+        <v>500</v>
+      </c>
+      <c r="F20" s="50">
         <f t="shared" si="1"/>
         <v>17755.131350567015</v>
       </c>
-      <c r="G20" s="56"/>
+      <c r="G20" s="51"/>
     </row>
     <row r="21" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="56"/>
-      <c r="C21" s="54">
+      <c r="B21" s="51"/>
+      <c r="C21" s="49">
         <v>44743</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="50">
         <f t="shared" si="0"/>
         <v>22.193914188208769</v>
       </c>
-      <c r="E21" s="55">
-        <v>500</v>
-      </c>
-      <c r="F21" s="55">
+      <c r="E21" s="50">
+        <v>500</v>
+      </c>
+      <c r="F21" s="50">
         <f t="shared" si="1"/>
         <v>18277.325264755225</v>
       </c>
-      <c r="G21" s="56"/>
+      <c r="G21" s="51"/>
     </row>
     <row r="22" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="56"/>
-      <c r="C22" s="54">
+      <c r="B22" s="51"/>
+      <c r="C22" s="49">
         <v>44774</v>
       </c>
-      <c r="D22" s="55">
+      <c r="D22" s="50">
         <f t="shared" si="0"/>
         <v>22.846656580944032</v>
       </c>
-      <c r="E22" s="55">
-        <v>500</v>
-      </c>
-      <c r="F22" s="55">
+      <c r="E22" s="50">
+        <v>500</v>
+      </c>
+      <c r="F22" s="50">
         <f t="shared" si="1"/>
         <v>18800.171921336168</v>
       </c>
-      <c r="G22" s="56"/>
+      <c r="G22" s="51"/>
     </row>
     <row r="23" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="56"/>
-      <c r="C23" s="54">
+      <c r="B23" s="51"/>
+      <c r="C23" s="49">
         <v>44805</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="50">
         <f t="shared" si="0"/>
         <v>23.500214901670212</v>
       </c>
-      <c r="E23" s="55">
-        <v>500</v>
-      </c>
-      <c r="F23" s="55">
+      <c r="E23" s="50">
+        <v>500</v>
+      </c>
+      <c r="F23" s="50">
         <f t="shared" si="1"/>
         <v>19323.672136237838</v>
       </c>
-      <c r="G23" s="56"/>
+      <c r="G23" s="51"/>
     </row>
     <row r="24" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="56"/>
-      <c r="C24" s="54">
+      <c r="B24" s="51"/>
+      <c r="C24" s="49">
         <v>44835</v>
       </c>
-      <c r="D24" s="55">
+      <c r="D24" s="50">
         <f t="shared" si="0"/>
         <v>24.154590170297297</v>
       </c>
-      <c r="E24" s="55">
-        <v>500</v>
-      </c>
-      <c r="F24" s="55">
+      <c r="E24" s="50">
+        <v>500</v>
+      </c>
+      <c r="F24" s="50">
         <f t="shared" si="1"/>
         <v>19847.826726408133</v>
       </c>
-      <c r="G24" s="56"/>
+      <c r="G24" s="51"/>
     </row>
     <row r="25" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="56"/>
-      <c r="C25" s="54">
+      <c r="B25" s="51"/>
+      <c r="C25" s="49">
         <v>44866</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="50">
         <f t="shared" si="0"/>
         <v>24.809783408010166</v>
       </c>
-      <c r="E25" s="55">
-        <v>500</v>
-      </c>
-      <c r="F25" s="55">
+      <c r="E25" s="50">
+        <v>500</v>
+      </c>
+      <c r="F25" s="50">
         <f t="shared" si="1"/>
         <v>20372.636509816144</v>
       </c>
-      <c r="G25" s="56"/>
+      <c r="G25" s="51"/>
     </row>
     <row r="26" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="56"/>
-      <c r="C26" s="54">
+      <c r="B26" s="51"/>
+      <c r="C26" s="49">
         <v>44896</v>
       </c>
-      <c r="D26" s="55">
+      <c r="D26" s="50">
         <f t="shared" si="0"/>
         <v>25.46579563727018</v>
       </c>
-      <c r="E26" s="55">
-        <v>500</v>
-      </c>
-      <c r="F26" s="55">
+      <c r="E26" s="50">
+        <v>500</v>
+      </c>
+      <c r="F26" s="50">
         <f t="shared" si="1"/>
         <v>20898.102305453413</v>
       </c>
-      <c r="G26" s="56"/>
+      <c r="G26" s="51"/>
     </row>
     <row r="27" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="56"/>
-      <c r="C27" s="54">
+      <c r="B27" s="51"/>
+      <c r="C27" s="49">
         <v>44927</v>
       </c>
-      <c r="D27" s="55">
+      <c r="D27" s="50">
         <f t="shared" si="0"/>
         <v>26.122627881816765</v>
       </c>
-      <c r="E27" s="55">
-        <v>500</v>
-      </c>
-      <c r="F27" s="55">
+      <c r="E27" s="50">
+        <v>500</v>
+      </c>
+      <c r="F27" s="50">
         <f t="shared" si="1"/>
         <v>21424.22493333523</v>
       </c>
-      <c r="G27" s="56"/>
+      <c r="G27" s="51"/>
     </row>
     <row r="28" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="56"/>
-      <c r="C28" s="54">
+      <c r="B28" s="51"/>
+      <c r="C28" s="49">
         <v>44958</v>
       </c>
-      <c r="D28" s="55">
+      <c r="D28" s="50">
         <f t="shared" si="0"/>
         <v>26.780281166669038</v>
       </c>
-      <c r="E28" s="55">
-        <v>500</v>
-      </c>
-      <c r="F28" s="55">
+      <c r="E28" s="50">
+        <v>500</v>
+      </c>
+      <c r="F28" s="50">
         <f t="shared" si="1"/>
         <v>21951.0052145019</v>
       </c>
-      <c r="G28" s="56"/>
+      <c r="G28" s="51"/>
     </row>
     <row r="29" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="56"/>
-      <c r="C29" s="54">
+      <c r="B29" s="51"/>
+      <c r="C29" s="49">
         <v>44986</v>
       </c>
-      <c r="D29" s="55">
+      <c r="D29" s="50">
         <f t="shared" si="0"/>
         <v>27.438756518127377</v>
       </c>
-      <c r="E29" s="55">
-        <v>500</v>
-      </c>
-      <c r="F29" s="55">
+      <c r="E29" s="50">
+        <v>500</v>
+      </c>
+      <c r="F29" s="50">
         <f t="shared" si="1"/>
         <v>22478.443971020028</v>
       </c>
-      <c r="G29" s="56"/>
+      <c r="G29" s="51"/>
     </row>
     <row r="30" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="56"/>
-      <c r="C30" s="54">
+      <c r="B30" s="51"/>
+      <c r="C30" s="49">
         <v>45017</v>
       </c>
-      <c r="D30" s="55">
+      <c r="D30" s="50">
         <f t="shared" si="0"/>
         <v>28.098054963775034</v>
       </c>
-      <c r="E30" s="55">
-        <v>500</v>
-      </c>
-      <c r="F30" s="55">
+      <c r="E30" s="50">
+        <v>500</v>
+      </c>
+      <c r="F30" s="50">
         <f t="shared" si="1"/>
         <v>23006.542025983803</v>
       </c>
-      <c r="G30" s="56"/>
+      <c r="G30" s="51"/>
     </row>
     <row r="31" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="56"/>
-      <c r="C31" s="54">
+      <c r="B31" s="51"/>
+      <c r="C31" s="49">
         <v>45047</v>
       </c>
-      <c r="D31" s="55">
+      <c r="D31" s="50">
         <f t="shared" si="0"/>
         <v>28.758177532479753</v>
       </c>
-      <c r="E31" s="55">
-        <v>500</v>
-      </c>
-      <c r="F31" s="55">
+      <c r="E31" s="50">
+        <v>500</v>
+      </c>
+      <c r="F31" s="50">
         <f t="shared" si="1"/>
         <v>23535.300203516283</v>
       </c>
-      <c r="G31" s="56"/>
+      <c r="G31" s="51"/>
     </row>
     <row r="32" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="56"/>
-      <c r="C32" s="54">
+      <c r="B32" s="51"/>
+      <c r="C32" s="49">
         <v>45078</v>
       </c>
-      <c r="D32" s="55">
+      <c r="D32" s="50">
         <f t="shared" si="0"/>
         <v>29.419125254395354</v>
       </c>
-      <c r="E32" s="55">
-        <v>500</v>
-      </c>
-      <c r="F32" s="55">
+      <c r="E32" s="50">
+        <v>500</v>
+      </c>
+      <c r="F32" s="50">
         <f t="shared" si="1"/>
         <v>24064.71932877068</v>
       </c>
-      <c r="G32" s="56"/>
+      <c r="G32" s="51"/>
     </row>
     <row r="33" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="56"/>
-      <c r="C33" s="54">
+      <c r="B33" s="51"/>
+      <c r="C33" s="49">
         <v>45108</v>
       </c>
-      <c r="D33" s="55">
+      <c r="D33" s="50">
         <f t="shared" si="0"/>
         <v>30.080899160963352</v>
       </c>
-      <c r="E33" s="55">
-        <v>500</v>
-      </c>
-      <c r="F33" s="55">
+      <c r="E33" s="50">
+        <v>500</v>
+      </c>
+      <c r="F33" s="50">
         <f t="shared" si="1"/>
         <v>24594.800227931642</v>
       </c>
-      <c r="G33" s="56"/>
+      <c r="G33" s="51"/>
     </row>
     <row r="34" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="56"/>
-      <c r="C34" s="54">
+      <c r="B34" s="51"/>
+      <c r="C34" s="49">
         <v>45139</v>
       </c>
-      <c r="D34" s="55">
+      <c r="D34" s="50">
         <f t="shared" si="0"/>
         <v>30.743500284914553</v>
       </c>
-      <c r="E34" s="55">
-        <v>500</v>
-      </c>
-      <c r="F34" s="55">
+      <c r="E34" s="50">
+        <v>500</v>
+      </c>
+      <c r="F34" s="50">
         <f t="shared" si="1"/>
         <v>25125.543728216559</v>
       </c>
-      <c r="G34" s="56"/>
+      <c r="G34" s="51"/>
     </row>
     <row r="35" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="56"/>
-      <c r="C35" s="54">
+      <c r="B35" s="51"/>
+      <c r="C35" s="49">
         <v>45170</v>
       </c>
-      <c r="D35" s="55">
+      <c r="D35" s="50">
         <f t="shared" si="0"/>
         <v>31.406929660270698</v>
       </c>
-      <c r="E35" s="55">
-        <v>500</v>
-      </c>
-      <c r="F35" s="55">
+      <c r="E35" s="50">
+        <v>500</v>
+      </c>
+      <c r="F35" s="50">
         <f t="shared" si="1"/>
         <v>25656.950657876831</v>
       </c>
-      <c r="G35" s="56"/>
+      <c r="G35" s="51"/>
     </row>
     <row r="36" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="56"/>
-      <c r="C36" s="54">
+      <c r="B36" s="51"/>
+      <c r="C36" s="49">
         <v>45200</v>
       </c>
-      <c r="D36" s="55">
+      <c r="D36" s="50">
         <f t="shared" si="0"/>
         <v>32.071188322346039</v>
       </c>
-      <c r="E36" s="55">
-        <v>500</v>
-      </c>
-      <c r="F36" s="55">
+      <c r="E36" s="50">
+        <v>500</v>
+      </c>
+      <c r="F36" s="50">
         <f t="shared" si="1"/>
         <v>26189.021846199175</v>
       </c>
-      <c r="G36" s="56"/>
+      <c r="G36" s="51"/>
     </row>
     <row r="37" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="56"/>
-      <c r="C37" s="54">
+      <c r="B37" s="51"/>
+      <c r="C37" s="49">
         <v>45231</v>
       </c>
-      <c r="D37" s="55">
+      <c r="D37" s="50">
         <f t="shared" si="0"/>
         <v>32.736277307748971</v>
       </c>
-      <c r="E37" s="55">
-        <v>500</v>
-      </c>
-      <c r="F37" s="55">
+      <c r="E37" s="50">
+        <v>500</v>
+      </c>
+      <c r="F37" s="50">
         <f t="shared" si="1"/>
         <v>26721.758123506923</v>
       </c>
-      <c r="G37" s="56"/>
+      <c r="G37" s="51"/>
     </row>
     <row r="38" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="56"/>
-      <c r="C38" s="54">
+      <c r="B38" s="51"/>
+      <c r="C38" s="49">
         <v>45261</v>
       </c>
-      <c r="D38" s="55">
+      <c r="D38" s="50">
         <f t="shared" ref="D38:D65" si="2">$J$9*F37</f>
         <v>33.402197654383656</v>
       </c>
-      <c r="E38" s="55">
-        <v>500</v>
-      </c>
-      <c r="F38" s="55">
+      <c r="E38" s="50">
+        <v>500</v>
+      </c>
+      <c r="F38" s="50">
         <f t="shared" si="1"/>
         <v>27255.160321161307</v>
       </c>
-      <c r="G38" s="56"/>
+      <c r="G38" s="51"/>
     </row>
     <row r="39" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="56"/>
-      <c r="C39" s="54">
+      <c r="B39" s="51"/>
+      <c r="C39" s="49">
         <v>45292</v>
       </c>
-      <c r="D39" s="55">
+      <c r="D39" s="50">
         <f t="shared" si="2"/>
         <v>34.068950401451637</v>
       </c>
-      <c r="E39" s="55">
-        <v>500</v>
-      </c>
-      <c r="F39" s="55">
+      <c r="E39" s="50">
+        <v>500</v>
+      </c>
+      <c r="F39" s="50">
         <f t="shared" si="1"/>
         <v>27789.229271562759</v>
       </c>
-      <c r="G39" s="56"/>
+      <c r="G39" s="51"/>
     </row>
     <row r="40" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="56"/>
-      <c r="C40" s="54">
+      <c r="B40" s="51"/>
+      <c r="C40" s="49">
         <v>45323</v>
       </c>
-      <c r="D40" s="55">
+      <c r="D40" s="50">
         <f t="shared" si="2"/>
         <v>34.736536589453451</v>
       </c>
-      <c r="E40" s="55">
-        <v>500</v>
-      </c>
-      <c r="F40" s="55">
+      <c r="E40" s="50">
+        <v>500</v>
+      </c>
+      <c r="F40" s="50">
         <f t="shared" si="1"/>
         <v>28323.965808152214</v>
       </c>
-      <c r="G40" s="56"/>
+      <c r="G40" s="51"/>
     </row>
     <row r="41" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="56"/>
-      <c r="C41" s="54">
+      <c r="B41" s="51"/>
+      <c r="C41" s="49">
         <v>45352</v>
       </c>
-      <c r="D41" s="55">
+      <c r="D41" s="50">
         <f t="shared" si="2"/>
         <v>35.404957260190265</v>
       </c>
-      <c r="E41" s="55">
-        <v>500</v>
-      </c>
-      <c r="F41" s="55">
+      <c r="E41" s="50">
+        <v>500</v>
+      </c>
+      <c r="F41" s="50">
         <f t="shared" si="1"/>
         <v>28859.370765412405</v>
       </c>
-      <c r="G41" s="56"/>
+      <c r="G41" s="51"/>
     </row>
     <row r="42" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="56"/>
-      <c r="C42" s="54">
+      <c r="B42" s="51"/>
+      <c r="C42" s="49">
         <v>45383</v>
       </c>
-      <c r="D42" s="55">
+      <c r="D42" s="50">
         <f t="shared" si="2"/>
         <v>36.074213456765506</v>
       </c>
-      <c r="E42" s="55">
-        <v>500</v>
-      </c>
-      <c r="F42" s="55">
+      <c r="E42" s="50">
+        <v>500</v>
+      </c>
+      <c r="F42" s="50">
         <f t="shared" si="1"/>
         <v>29395.444978869171</v>
       </c>
-      <c r="G42" s="56"/>
+      <c r="G42" s="51"/>
     </row>
     <row r="43" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="56"/>
-      <c r="C43" s="54">
+      <c r="B43" s="51"/>
+      <c r="C43" s="49">
         <v>45413</v>
       </c>
-      <c r="D43" s="55">
+      <c r="D43" s="50">
         <f t="shared" si="2"/>
         <v>36.744306223586463</v>
       </c>
-      <c r="E43" s="55">
-        <v>500</v>
-      </c>
-      <c r="F43" s="55">
+      <c r="E43" s="50">
+        <v>500</v>
+      </c>
+      <c r="F43" s="50">
         <f t="shared" si="1"/>
         <v>29932.189285092758</v>
       </c>
-      <c r="G43" s="56"/>
+      <c r="G43" s="51"/>
     </row>
     <row r="44" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="56"/>
-      <c r="C44" s="54">
+      <c r="B44" s="51"/>
+      <c r="C44" s="49">
         <v>45444</v>
       </c>
-      <c r="D44" s="55">
+      <c r="D44" s="50">
         <f t="shared" si="2"/>
         <v>37.415236606365951</v>
       </c>
-      <c r="E44" s="55">
-        <v>500</v>
-      </c>
-      <c r="F44" s="55">
+      <c r="E44" s="50">
+        <v>500</v>
+      </c>
+      <c r="F44" s="50">
         <f t="shared" si="1"/>
         <v>30469.604521699122</v>
       </c>
-      <c r="G44" s="56"/>
+      <c r="G44" s="51"/>
     </row>
     <row r="45" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="56"/>
-      <c r="C45" s="54">
+      <c r="B45" s="51"/>
+      <c r="C45" s="49">
         <v>45474</v>
       </c>
-      <c r="D45" s="55">
+      <c r="D45" s="50">
         <f t="shared" si="2"/>
         <v>38.087005652123906</v>
       </c>
-      <c r="E45" s="55">
-        <v>500</v>
-      </c>
-      <c r="F45" s="55">
+      <c r="E45" s="50">
+        <v>500</v>
+      </c>
+      <c r="F45" s="50">
         <f t="shared" si="1"/>
         <v>31007.691527351246</v>
       </c>
-      <c r="G45" s="56"/>
+      <c r="G45" s="51"/>
     </row>
     <row r="46" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="56"/>
-      <c r="C46" s="54">
+      <c r="B46" s="51"/>
+      <c r="C46" s="49">
         <v>45505</v>
       </c>
-      <c r="D46" s="55">
+      <c r="D46" s="50">
         <f t="shared" si="2"/>
         <v>38.759614409189055</v>
       </c>
-      <c r="E46" s="55">
-        <v>500</v>
-      </c>
-      <c r="F46" s="55">
+      <c r="E46" s="50">
+        <v>500</v>
+      </c>
+      <c r="F46" s="50">
         <f t="shared" si="1"/>
         <v>31546.451141760434</v>
       </c>
-      <c r="G46" s="56"/>
+      <c r="G46" s="51"/>
     </row>
     <row r="47" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="56"/>
-      <c r="C47" s="54">
+      <c r="B47" s="51"/>
+      <c r="C47" s="49">
         <v>45536</v>
       </c>
-      <c r="D47" s="55">
+      <c r="D47" s="50">
         <f t="shared" si="2"/>
         <v>39.433063927200543</v>
       </c>
-      <c r="E47" s="55">
-        <v>500</v>
-      </c>
-      <c r="F47" s="55">
+      <c r="E47" s="50">
+        <v>500</v>
+      </c>
+      <c r="F47" s="50">
         <f t="shared" si="1"/>
         <v>32085.884205687635</v>
       </c>
-      <c r="G47" s="56"/>
+      <c r="G47" s="51"/>
     </row>
     <row r="48" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="56"/>
-      <c r="C48" s="54">
+      <c r="B48" s="51"/>
+      <c r="C48" s="49">
         <v>45566</v>
       </c>
-      <c r="D48" s="55">
+      <c r="D48" s="50">
         <f t="shared" si="2"/>
         <v>40.107355257109546</v>
       </c>
-      <c r="E48" s="55">
-        <v>500</v>
-      </c>
-      <c r="F48" s="55">
+      <c r="E48" s="50">
+        <v>500</v>
+      </c>
+      <c r="F48" s="50">
         <f t="shared" si="1"/>
         <v>32625.991560944745</v>
       </c>
-      <c r="G48" s="56"/>
+      <c r="G48" s="51"/>
     </row>
     <row r="49" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="56"/>
-      <c r="C49" s="54">
+      <c r="B49" s="51"/>
+      <c r="C49" s="49">
         <v>45597</v>
       </c>
-      <c r="D49" s="55">
+      <c r="D49" s="50">
         <f t="shared" si="2"/>
         <v>40.782489451180929</v>
       </c>
-      <c r="E49" s="55">
-        <v>500</v>
-      </c>
-      <c r="F49" s="55">
+      <c r="E49" s="50">
+        <v>500</v>
+      </c>
+      <c r="F49" s="50">
         <f t="shared" si="1"/>
         <v>33166.774050395921</v>
       </c>
-      <c r="G49" s="56"/>
+      <c r="G49" s="51"/>
     </row>
     <row r="50" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="56"/>
-      <c r="C50" s="54">
+      <c r="B50" s="51"/>
+      <c r="C50" s="49">
         <v>45627</v>
       </c>
-      <c r="D50" s="55">
+      <c r="D50" s="50">
         <f t="shared" si="2"/>
         <v>41.458467562994905</v>
       </c>
-      <c r="E50" s="55">
-        <v>500</v>
-      </c>
-      <c r="F50" s="55">
+      <c r="E50" s="50">
+        <v>500</v>
+      </c>
+      <c r="F50" s="50">
         <f t="shared" si="1"/>
         <v>33708.232517958917</v>
       </c>
-      <c r="G50" s="56"/>
+      <c r="G50" s="51"/>
     </row>
     <row r="51" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="56"/>
-      <c r="C51" s="54">
+      <c r="B51" s="51"/>
+      <c r="C51" s="49">
         <v>45658</v>
       </c>
-      <c r="D51" s="55">
+      <c r="D51" s="50">
         <f t="shared" si="2"/>
         <v>42.135290647448649</v>
       </c>
-      <c r="E51" s="55">
-        <v>500</v>
-      </c>
-      <c r="F51" s="55">
+      <c r="E51" s="50">
+        <v>500</v>
+      </c>
+      <c r="F51" s="50">
         <f t="shared" si="1"/>
         <v>34250.367808606366</v>
       </c>
-      <c r="G51" s="56"/>
+      <c r="G51" s="51"/>
     </row>
     <row r="52" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="56"/>
-      <c r="C52" s="54">
+      <c r="B52" s="51"/>
+      <c r="C52" s="49">
         <v>45689</v>
       </c>
-      <c r="D52" s="55">
+      <c r="D52" s="50">
         <f t="shared" si="2"/>
         <v>42.812959760757956</v>
       </c>
-      <c r="E52" s="55">
-        <v>500</v>
-      </c>
-      <c r="F52" s="55">
+      <c r="E52" s="50">
+        <v>500</v>
+      </c>
+      <c r="F52" s="50">
         <f t="shared" si="1"/>
         <v>34793.180768367121</v>
       </c>
-      <c r="G52" s="56"/>
+      <c r="G52" s="51"/>
     </row>
     <row r="53" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="56"/>
-      <c r="C53" s="54">
+      <c r="B53" s="51"/>
+      <c r="C53" s="49">
         <v>45717</v>
       </c>
-      <c r="D53" s="55">
+      <c r="D53" s="50">
         <f t="shared" si="2"/>
         <v>43.491475960458899</v>
       </c>
-      <c r="E53" s="55">
-        <v>500</v>
-      </c>
-      <c r="F53" s="55">
+      <c r="E53" s="50">
+        <v>500</v>
+      </c>
+      <c r="F53" s="50">
         <f t="shared" si="1"/>
         <v>35336.672244327579</v>
       </c>
-      <c r="G53" s="56"/>
+      <c r="G53" s="51"/>
     </row>
     <row r="54" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="56"/>
-      <c r="C54" s="54">
+      <c r="B54" s="51"/>
+      <c r="C54" s="49">
         <v>45748</v>
       </c>
-      <c r="D54" s="55">
+      <c r="D54" s="50">
         <f t="shared" si="2"/>
         <v>44.170840305409477</v>
       </c>
-      <c r="E54" s="55">
-        <v>500</v>
-      </c>
-      <c r="F54" s="55">
+      <c r="E54" s="50">
+        <v>500</v>
+      </c>
+      <c r="F54" s="50">
         <f t="shared" si="1"/>
         <v>35880.843084632987</v>
       </c>
-      <c r="G54" s="56"/>
+      <c r="G54" s="51"/>
     </row>
     <row r="55" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="56"/>
-      <c r="C55" s="54">
+      <c r="B55" s="51"/>
+      <c r="C55" s="49">
         <v>45778</v>
       </c>
-      <c r="D55" s="55">
+      <c r="D55" s="50">
         <f t="shared" si="2"/>
         <v>44.851053855791235</v>
       </c>
-      <c r="E55" s="55">
-        <v>500</v>
-      </c>
-      <c r="F55" s="55">
+      <c r="E55" s="50">
+        <v>500</v>
+      </c>
+      <c r="F55" s="50">
         <f t="shared" si="1"/>
         <v>36425.694138488776</v>
       </c>
-      <c r="G55" s="56"/>
+      <c r="G55" s="51"/>
     </row>
     <row r="56" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="56"/>
-      <c r="C56" s="54">
+      <c r="B56" s="51"/>
+      <c r="C56" s="49">
         <v>45809</v>
       </c>
-      <c r="D56" s="55">
+      <c r="D56" s="50">
         <f t="shared" si="2"/>
         <v>45.532117673110967</v>
       </c>
-      <c r="E56" s="55">
-        <v>500</v>
-      </c>
-      <c r="F56" s="55">
+      <c r="E56" s="50">
+        <v>500</v>
+      </c>
+      <c r="F56" s="50">
         <f t="shared" si="1"/>
         <v>36971.226256161885</v>
       </c>
-      <c r="G56" s="56"/>
+      <c r="G56" s="51"/>
     </row>
     <row r="57" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="56"/>
-      <c r="C57" s="54">
+      <c r="B57" s="51"/>
+      <c r="C57" s="49">
         <v>45839</v>
       </c>
-      <c r="D57" s="55">
+      <c r="D57" s="50">
         <f t="shared" si="2"/>
         <v>46.214032820202355</v>
       </c>
-      <c r="E57" s="55">
-        <v>500</v>
-      </c>
-      <c r="F57" s="55">
+      <c r="E57" s="50">
+        <v>500</v>
+      </c>
+      <c r="F57" s="50">
         <f t="shared" si="1"/>
         <v>37517.440288982085</v>
       </c>
-      <c r="G57" s="56"/>
+      <c r="G57" s="51"/>
     </row>
     <row r="58" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="56"/>
-      <c r="C58" s="54">
+      <c r="B58" s="51"/>
+      <c r="C58" s="49">
         <v>45870</v>
       </c>
-      <c r="D58" s="55">
+      <c r="D58" s="50">
         <f t="shared" si="2"/>
         <v>46.896800361227605</v>
       </c>
-      <c r="E58" s="55">
-        <v>500</v>
-      </c>
-      <c r="F58" s="55">
+      <c r="E58" s="50">
+        <v>500</v>
+      </c>
+      <c r="F58" s="50">
         <f t="shared" si="1"/>
         <v>38064.337089343309</v>
       </c>
-      <c r="G58" s="56"/>
+      <c r="G58" s="51"/>
     </row>
     <row r="59" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="56"/>
-      <c r="C59" s="54">
+      <c r="B59" s="51"/>
+      <c r="C59" s="49">
         <v>45901</v>
       </c>
-      <c r="D59" s="55">
+      <c r="D59" s="50">
         <f t="shared" si="2"/>
         <v>47.580421361679136</v>
       </c>
-      <c r="E59" s="55">
-        <v>500</v>
-      </c>
-      <c r="F59" s="55">
+      <c r="E59" s="50">
+        <v>500</v>
+      </c>
+      <c r="F59" s="50">
         <f t="shared" si="1"/>
         <v>38611.917510704989</v>
       </c>
-      <c r="G59" s="56"/>
+      <c r="G59" s="51"/>
     </row>
     <row r="60" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="56"/>
-      <c r="C60" s="54">
+      <c r="B60" s="51"/>
+      <c r="C60" s="49">
         <v>45931</v>
       </c>
-      <c r="D60" s="55">
+      <c r="D60" s="50">
         <f t="shared" si="2"/>
         <v>48.264896888381237</v>
       </c>
-      <c r="E60" s="55">
-        <v>500</v>
-      </c>
-      <c r="F60" s="55">
+      <c r="E60" s="50">
+        <v>500</v>
+      </c>
+      <c r="F60" s="50">
         <f t="shared" si="1"/>
         <v>39160.182407593369</v>
       </c>
-      <c r="G60" s="56"/>
+      <c r="G60" s="51"/>
     </row>
     <row r="61" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="56"/>
-      <c r="C61" s="54">
+      <c r="B61" s="51"/>
+      <c r="C61" s="49">
         <v>45962</v>
       </c>
-      <c r="D61" s="55">
+      <c r="D61" s="50">
         <f t="shared" si="2"/>
         <v>48.95022800949171</v>
       </c>
-      <c r="E61" s="55">
-        <v>500</v>
-      </c>
-      <c r="F61" s="55">
+      <c r="E61" s="50">
+        <v>500</v>
+      </c>
+      <c r="F61" s="50">
         <f t="shared" si="1"/>
         <v>39709.132635602858</v>
       </c>
-      <c r="G61" s="56"/>
+      <c r="G61" s="51"/>
     </row>
     <row r="62" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="56"/>
-      <c r="C62" s="54">
+      <c r="B62" s="51"/>
+      <c r="C62" s="49">
         <v>45992</v>
       </c>
-      <c r="D62" s="55">
+      <c r="D62" s="50">
         <f t="shared" si="2"/>
         <v>49.636415794503577</v>
       </c>
-      <c r="E62" s="55">
-        <v>500</v>
-      </c>
-      <c r="F62" s="55">
+      <c r="E62" s="50">
+        <v>500</v>
+      </c>
+      <c r="F62" s="50">
         <f t="shared" si="1"/>
         <v>40258.769051397365</v>
       </c>
-      <c r="G62" s="56"/>
+      <c r="G62" s="51"/>
     </row>
     <row r="63" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="56"/>
-      <c r="C63" s="54">
+      <c r="B63" s="51"/>
+      <c r="C63" s="49">
         <v>46023</v>
       </c>
-      <c r="D63" s="55">
+      <c r="D63" s="50">
         <f t="shared" si="2"/>
         <v>50.323461314246707</v>
       </c>
-      <c r="E63" s="55">
-        <v>500</v>
-      </c>
-      <c r="F63" s="55">
+      <c r="E63" s="50">
+        <v>500</v>
+      </c>
+      <c r="F63" s="50">
         <f t="shared" ref="F63:F65" si="3">F62+D63+E63</f>
         <v>40809.092512711613</v>
       </c>
-      <c r="G63" s="56"/>
+      <c r="G63" s="51"/>
     </row>
     <row r="64" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="56"/>
-      <c r="C64" s="54">
+      <c r="B64" s="51"/>
+      <c r="C64" s="49">
         <v>46054</v>
       </c>
-      <c r="D64" s="55">
+      <c r="D64" s="50">
         <f t="shared" si="2"/>
         <v>51.011365640889515</v>
       </c>
-      <c r="E64" s="55">
-        <v>500</v>
-      </c>
-      <c r="F64" s="55">
+      <c r="E64" s="50">
+        <v>500</v>
+      </c>
+      <c r="F64" s="50">
         <f t="shared" si="3"/>
         <v>41360.1038783525</v>
       </c>
-      <c r="G64" s="56"/>
+      <c r="G64" s="51"/>
     </row>
     <row r="65" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="56"/>
-      <c r="C65" s="54">
+      <c r="B65" s="51"/>
+      <c r="C65" s="49">
         <v>46082</v>
       </c>
-      <c r="D65" s="55">
+      <c r="D65" s="50">
         <f t="shared" si="2"/>
         <v>51.700129847940623</v>
       </c>
-      <c r="E65" s="55">
-        <v>500</v>
-      </c>
-      <c r="F65" s="55">
+      <c r="E65" s="50">
+        <v>500</v>
+      </c>
+      <c r="F65" s="50">
         <f t="shared" si="3"/>
         <v>41911.804008200437</v>
       </c>
-      <c r="G65" s="56"/>
+      <c r="G65" s="51"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B66" s="56"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J5">
@@ -5990,6 +4825,26 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6289,26 +5144,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{082E568A-D275-4349-BB4E-0AE14394E51D}">
   <ds:schemaRefs>
@@ -6318,6 +5153,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67610313-8E8D-4F0A-9821-51B850A6E13F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AB306A1-AFF6-40CB-BF3D-1EF22BB7168E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6338,18 +5185,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67610313-8E8D-4F0A-9821-51B850A6E13F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/spreadsheets/Family budget monthly.xlsx
+++ b/spreadsheets/Family budget monthly.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBD0D0F-A8C5-4C7E-BA7E-0FC6312BDFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D845729B-985F-47B1-8204-AE02E860C512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6430" yWindow="2970" windowWidth="25700" windowHeight="14450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly budget report" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Savings" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_TEMP.xlsxTBL_MonthlyExpenses1" hidden="1">TBL_MonthlyExpenses[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TEMP.xlsxTBL_MonthlyExpenses" hidden="1">TBL_MonthlyExpenses[]</definedName>
     <definedName name="List_ExpenseCategories">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Monthly expenses'!$2:$4</definedName>
   </definedNames>
@@ -59,7 +59,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="TBL_MonthlyExpenses" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TEMP.xlsxTBL_MonthlyExpenses1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TEMP.xlsxTBL_MonthlyExpenses"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -367,7 +367,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0_);[Red]\(&quot;$&quot;\ #,##0\)"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0"/>
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;\ #,##0.0000_);[Red]\(&quot;$&quot;\ #,##0.0000\)"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0.0000_);[Red]\(&quot;$&quot;\ #,##0.0000\)"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -833,6 +833,27 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -841,27 +862,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1592,16 +1592,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>336176</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1139265</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>321210</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>57982</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>172854</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>217907</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1629,8 +1629,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10944411" y="1602441"/>
-          <a:ext cx="4053363" cy="3087398"/>
+          <a:off x="9521239" y="319875"/>
+          <a:ext cx="4098903" cy="3092840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1882,8 +1882,8 @@
   </sheetPr>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1922,12 +1922,12 @@
     <row r="3" spans="1:12" s="3" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="1.85">
       <c r="A3" s="10"/>
       <c r="B3" s="14"/>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -1959,11 +1959,11 @@
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
     </row>
@@ -1981,11 +1981,11 @@
         <v>4</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="69" t="s">
+      <c r="H6" s="64"/>
+      <c r="I6" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="69" t="s">
+      <c r="J6" s="66" t="s">
         <v>87</v>
       </c>
       <c r="K6" s="14"/>
@@ -2010,14 +2010,14 @@
         <v>155</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="68">
+      <c r="I7" s="65">
         <f>Savings!F65</f>
         <v>41911.804008200437</v>
       </c>
-      <c r="J7" s="72">
+      <c r="J7" s="69">
         <f>Savings!D65</f>
         <v>51.700129847940623</v>
       </c>
@@ -2043,9 +2043,9 @@
         <v>-55</v>
       </c>
       <c r="G8" s="14"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
       <c r="K8" s="8"/>
       <c r="L8" s="14"/>
     </row>
@@ -2367,8 +2367,8 @@
   </sheetPr>
   <dimension ref="B1:H69"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CZ196" sqref="CZ196"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2384,11 +2384,11 @@
     <row r="1" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:8" s="7" customFormat="1" ht="80.05" customHeight="1" thickTop="1" x14ac:dyDescent="1.85">
       <c r="B2" s="29"/>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
       <c r="H2" s="29"/>
@@ -4816,35 +4816,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5144,27 +5115,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{082E568A-D275-4349-BB4E-0AE14394E51D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67610313-8E8D-4F0A-9821-51B850A6E13F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AB306A1-AFF6-40CB-BF3D-1EF22BB7168E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5185,6 +5165,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67610313-8E8D-4F0A-9821-51B850A6E13F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{082E568A-D275-4349-BB4E-0AE14394E51D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/spreadsheets/Family budget monthly.xlsx
+++ b/spreadsheets/Family budget monthly.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D845729B-985F-47B1-8204-AE02E860C512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35C3E1D-0E4D-42AD-BCA1-842F43FAA3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly budget report" sheetId="2" r:id="rId1"/>
     <sheet name="Monthly expenses" sheetId="3" r:id="rId2"/>
-    <sheet name="Savings" sheetId="6" r:id="rId3"/>
+    <sheet name="Interest" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_TEMP.xlsxTBL_MonthlyExpenses" hidden="1">TBL_MonthlyExpenses[]</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="97">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>Savings Account 1</t>
+  </si>
+  <si>
+    <t>Test?!</t>
   </si>
 </sst>
 </file>
@@ -592,7 +595,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -619,37 +622,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF00682F"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF00682F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF00682F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF00682F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF00682F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thick">
@@ -663,7 +635,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -824,13 +796,10 @@
     <xf numFmtId="49" fontId="22" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1658,15 +1627,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{46B4E492-9B14-4202-8E51-42A2EDF52486}" name="Table2" displayName="Table2" ref="C4:F65" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="C4:F65" xr:uid="{46B4E492-9B14-4202-8E51-42A2EDF52486}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9D1C6E41-060D-4F97-BF77-7C8F09BCC41D}" name="Table24" displayName="Table24" ref="C4:F65" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="C4:F65" xr:uid="{9D1C6E41-060D-4F97-BF77-7C8F09BCC41D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{60D90F81-A33C-4DBA-960C-192DF1442412}" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{9F6832B8-C2BC-4608-BCA0-3354D3D2FE4F}" name="Interest" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{3D59A9F2-EF62-4C23-9106-2C299EB960F7}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{54AB7298-BD13-4A9A-8553-DC2A3ED98DEE}" name="Interest" dataDxfId="4">
       <calculatedColumnFormula>$J$9*F4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{221E450F-4216-439A-A37E-28D8055CEE6F}" name="Deposit" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{2BADD937-4897-443E-A711-FB841CD338A2}" name="Total" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{955807F8-4A68-4CDC-A24B-36FE09F729AA}" name="Deposit" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{4294E201-A994-47DC-9E73-CB4A3A2683F5}" name="Total" dataDxfId="2">
       <calculatedColumnFormula>F4+D5+E5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1882,8 +1851,8 @@
   </sheetPr>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1894,7 +1863,7 @@
     <col min="7" max="7" width="2.59765625" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.19921875" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.59765625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.265625" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.1328125" style="1" customWidth="1"/>
     <col min="12" max="12" width="2.59765625" style="1" customWidth="1"/>
     <col min="13" max="16" width="8.86328125" style="1" customWidth="1"/>
@@ -1922,12 +1891,12 @@
     <row r="3" spans="1:12" s="3" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="1.85">
       <c r="A3" s="10"/>
       <c r="B3" s="14"/>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -1959,11 +1928,11 @@
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
     </row>
@@ -1981,11 +1950,11 @@
         <v>4</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="66" t="s">
+      <c r="H6" s="61"/>
+      <c r="I6" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="66" t="s">
+      <c r="J6" s="63" t="s">
         <v>87</v>
       </c>
       <c r="K6" s="14"/>
@@ -1999,27 +1968,27 @@
       </c>
       <c r="D7" s="23">
         <f>D9+D10-D8</f>
-        <v>1636.7001298479408</v>
+        <v>3496.8040082004372</v>
       </c>
       <c r="E7" s="23">
         <f>E9+E10-E8</f>
-        <v>1791.7001298479408</v>
+        <v>3651.8040082004372</v>
       </c>
       <c r="F7" s="24">
         <f>E7-D7</f>
         <v>155</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="65">
-        <f>Savings!F65</f>
+      <c r="I7" s="62">
+        <f>Interest!F65</f>
         <v>41911.804008200437</v>
       </c>
-      <c r="J7" s="69">
-        <f>Savings!D65</f>
-        <v>51.700129847940623</v>
+      <c r="J7" s="66">
+        <f>Interest!J12</f>
+        <v>1911.8040082004372</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -2043,9 +2012,9 @@
         <v>-55</v>
       </c>
       <c r="G8" s="14"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
       <c r="K8" s="8"/>
       <c r="L8" s="14"/>
     </row>
@@ -2082,11 +2051,11 @@
       </c>
       <c r="D10" s="23">
         <f>$J7</f>
-        <v>51.700129847940623</v>
+        <v>1911.8040082004372</v>
       </c>
       <c r="E10" s="23">
         <f>$J7</f>
-        <v>51.700129847940623</v>
+        <v>1911.8040082004372</v>
       </c>
       <c r="F10" s="24">
         <f>E10-D10</f>
@@ -2348,7 +2317,7 @@
   <mergeCells count="1">
     <mergeCell ref="C3:F3"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter your projected income in this cell" sqref="D15:D17 I6:I8" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter you actual income in this cell" sqref="E15:E17 J7:J8" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Difference is auto calculated in this cell" sqref="F15:F17" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
@@ -2365,10 +2334,10 @@
     <tabColor theme="8"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H69"/>
+  <dimension ref="B1:M69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2381,19 +2350,19 @@
     <col min="10" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:8" s="7" customFormat="1" ht="80.05" customHeight="1" thickTop="1" x14ac:dyDescent="1.85">
+    <row r="1" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:13" s="7" customFormat="1" ht="80.05" customHeight="1" thickTop="1" x14ac:dyDescent="1.85">
       <c r="B2" s="29"/>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
       <c r="H2" s="29"/>
     </row>
-    <row r="3" spans="2:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="8"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -2402,7 +2371,7 @@
       <c r="G3" s="15"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="2:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="22"/>
       <c r="C4" s="39" t="s">
         <v>9</v>
@@ -2421,7 +2390,7 @@
       </c>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="8"/>
       <c r="C5" s="41" t="s">
         <v>55</v>
@@ -2441,7 +2410,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="8"/>
       <c r="C6" s="41" t="s">
         <v>12</v>
@@ -2461,7 +2430,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="8"/>
       <c r="C7" s="41" t="s">
         <v>56</v>
@@ -2481,7 +2450,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="8"/>
       <c r="C8" s="41" t="s">
         <v>57</v>
@@ -2501,7 +2470,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="8"/>
       <c r="C9" s="41" t="s">
         <v>13</v>
@@ -2521,7 +2490,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="8"/>
       <c r="C10" s="41" t="s">
         <v>58</v>
@@ -2541,7 +2510,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="8"/>
       <c r="C11" s="41" t="s">
         <v>15</v>
@@ -2561,7 +2530,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="8"/>
       <c r="C12" s="41" t="s">
         <v>59</v>
@@ -2581,7 +2550,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="8"/>
       <c r="C13" s="41" t="s">
         <v>60</v>
@@ -2601,7 +2570,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="8"/>
       <c r="C14" s="41" t="s">
         <v>61</v>
@@ -2620,8 +2589,11 @@
         <v>-30</v>
       </c>
       <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M14" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="8"/>
       <c r="C15" s="41" t="s">
         <v>62</v>
@@ -2641,7 +2613,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="8"/>
       <c r="C16" s="41" t="s">
         <v>63</v>
@@ -3593,45 +3565,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6496504D-7C5D-4BE8-BC8D-E626AF5EB2CE}">
-  <sheetPr codeName="Sheet5">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B618A38-7516-49C0-AD89-7C048EC36DD6}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="107" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.53125" customWidth="1"/>
-    <col min="2" max="2" width="3.265625" customWidth="1"/>
-    <col min="3" max="3" width="17.73046875" customWidth="1"/>
-    <col min="4" max="4" width="14.1328125" customWidth="1"/>
-    <col min="5" max="5" width="16.06640625" customWidth="1"/>
-    <col min="6" max="6" width="19.796875" customWidth="1"/>
-    <col min="7" max="7" width="4.1328125" customWidth="1"/>
-    <col min="9" max="9" width="19.3984375" customWidth="1"/>
+    <col min="9" max="9" width="20.73046875" customWidth="1"/>
+    <col min="10" max="10" width="13.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="58"/>
-    </row>
-    <row r="2" spans="2:10" ht="78" customHeight="1" thickTop="1" x14ac:dyDescent="1.85">
-      <c r="B2" s="59"/>
-      <c r="C2" s="60" t="s">
+    <row r="1" spans="2:10" ht="15.45" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:10" ht="66.45" thickTop="1" x14ac:dyDescent="1.85">
+      <c r="B2" s="56"/>
+      <c r="C2" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="59"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" s="51"/>
@@ -3641,7 +3597,7 @@
       <c r="F3" s="53"/>
       <c r="G3" s="51"/>
     </row>
-    <row r="4" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" ht="17.600000000000001" x14ac:dyDescent="0.45">
       <c r="B4" s="51"/>
       <c r="C4" s="55" t="s">
         <v>86</v>
@@ -3657,7 +3613,7 @@
       </c>
       <c r="G4" s="51"/>
     </row>
-    <row r="5" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" ht="35.15" x14ac:dyDescent="0.45">
       <c r="B5" s="51"/>
       <c r="C5" s="49">
         <v>44256</v>
@@ -3673,13 +3629,13 @@
       </c>
       <c r="J5" s="45"/>
     </row>
-    <row r="6" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" ht="35.15" x14ac:dyDescent="0.45">
       <c r="B6" s="51"/>
       <c r="C6" s="49">
         <v>44287</v>
       </c>
       <c r="D6" s="50">
-        <f t="shared" ref="D6:D37" si="0">$J$9*F5</f>
+        <f t="shared" ref="D6:D65" si="0">$J$9*F5</f>
         <v>12.5</v>
       </c>
       <c r="E6" s="50">
@@ -3697,7 +3653,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" ht="17.600000000000001" x14ac:dyDescent="0.45">
       <c r="B7" s="51"/>
       <c r="C7" s="49">
         <v>44317</v>
@@ -3710,13 +3666,13 @@
         <v>500</v>
       </c>
       <c r="F7" s="50">
-        <f t="shared" ref="F7:F62" si="1">F6+D7+E7</f>
+        <f t="shared" ref="F7:F65" si="1">F6+D7+E7</f>
         <v>11025.640625</v>
       </c>
       <c r="G7" s="51"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" ht="35.15" x14ac:dyDescent="0.45">
       <c r="B8" s="51"/>
       <c r="C8" s="49">
         <v>44348</v>
@@ -3737,7 +3693,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" ht="70.3" x14ac:dyDescent="0.45">
       <c r="B9" s="51"/>
       <c r="C9" s="49">
         <v>44378</v>
@@ -3762,7 +3718,7 @@
         <v>1.25E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10" s="51"/>
       <c r="C10" s="49">
         <v>44409</v>
@@ -3781,7 +3737,7 @@
       <c r="G10" s="51"/>
       <c r="J10" s="43"/>
     </row>
-    <row r="11" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" ht="52.75" x14ac:dyDescent="0.45">
       <c r="B11" s="51"/>
       <c r="C11" s="49">
         <v>44440</v>
@@ -3806,7 +3762,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" ht="52.75" x14ac:dyDescent="0.45">
       <c r="B12" s="51"/>
       <c r="C12" s="49">
         <v>44470</v>
@@ -3831,7 +3787,7 @@
         <v>1911.8040082004372</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13" s="51"/>
       <c r="C13" s="49">
         <v>44501</v>
@@ -3849,7 +3805,7 @@
       </c>
       <c r="G13" s="51"/>
     </row>
-    <row r="14" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" s="51"/>
       <c r="C14" s="49">
         <v>44531</v>
@@ -3867,7 +3823,7 @@
       </c>
       <c r="G14" s="51"/>
     </row>
-    <row r="15" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B15" s="51"/>
       <c r="C15" s="49">
         <v>44562</v>
@@ -3885,7 +3841,7 @@
       </c>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" s="51"/>
       <c r="C16" s="49">
         <v>44593</v>
@@ -3903,7 +3859,7 @@
       </c>
       <c r="G16" s="51"/>
     </row>
-    <row r="17" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="51"/>
       <c r="C17" s="49">
         <v>44621</v>
@@ -3921,7 +3877,7 @@
       </c>
       <c r="G17" s="51"/>
     </row>
-    <row r="18" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="51"/>
       <c r="C18" s="49">
         <v>44652</v>
@@ -3939,7 +3895,7 @@
       </c>
       <c r="G18" s="51"/>
     </row>
-    <row r="19" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="51"/>
       <c r="C19" s="49">
         <v>44682</v>
@@ -3957,7 +3913,7 @@
       </c>
       <c r="G19" s="51"/>
     </row>
-    <row r="20" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="51"/>
       <c r="C20" s="49">
         <v>44713</v>
@@ -3975,7 +3931,7 @@
       </c>
       <c r="G20" s="51"/>
     </row>
-    <row r="21" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="51"/>
       <c r="C21" s="49">
         <v>44743</v>
@@ -3993,7 +3949,7 @@
       </c>
       <c r="G21" s="51"/>
     </row>
-    <row r="22" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="51"/>
       <c r="C22" s="49">
         <v>44774</v>
@@ -4011,7 +3967,7 @@
       </c>
       <c r="G22" s="51"/>
     </row>
-    <row r="23" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="51"/>
       <c r="C23" s="49">
         <v>44805</v>
@@ -4029,7 +3985,7 @@
       </c>
       <c r="G23" s="51"/>
     </row>
-    <row r="24" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="51"/>
       <c r="C24" s="49">
         <v>44835</v>
@@ -4047,7 +4003,7 @@
       </c>
       <c r="G24" s="51"/>
     </row>
-    <row r="25" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="51"/>
       <c r="C25" s="49">
         <v>44866</v>
@@ -4065,7 +4021,7 @@
       </c>
       <c r="G25" s="51"/>
     </row>
-    <row r="26" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="51"/>
       <c r="C26" s="49">
         <v>44896</v>
@@ -4083,7 +4039,7 @@
       </c>
       <c r="G26" s="51"/>
     </row>
-    <row r="27" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="51"/>
       <c r="C27" s="49">
         <v>44927</v>
@@ -4101,7 +4057,7 @@
       </c>
       <c r="G27" s="51"/>
     </row>
-    <row r="28" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="51"/>
       <c r="C28" s="49">
         <v>44958</v>
@@ -4119,7 +4075,7 @@
       </c>
       <c r="G28" s="51"/>
     </row>
-    <row r="29" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="51"/>
       <c r="C29" s="49">
         <v>44986</v>
@@ -4137,7 +4093,7 @@
       </c>
       <c r="G29" s="51"/>
     </row>
-    <row r="30" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="51"/>
       <c r="C30" s="49">
         <v>45017</v>
@@ -4155,7 +4111,7 @@
       </c>
       <c r="G30" s="51"/>
     </row>
-    <row r="31" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="51"/>
       <c r="C31" s="49">
         <v>45047</v>
@@ -4173,7 +4129,7 @@
       </c>
       <c r="G31" s="51"/>
     </row>
-    <row r="32" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="51"/>
       <c r="C32" s="49">
         <v>45078</v>
@@ -4191,7 +4147,7 @@
       </c>
       <c r="G32" s="51"/>
     </row>
-    <row r="33" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="51"/>
       <c r="C33" s="49">
         <v>45108</v>
@@ -4209,7 +4165,7 @@
       </c>
       <c r="G33" s="51"/>
     </row>
-    <row r="34" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="51"/>
       <c r="C34" s="49">
         <v>45139</v>
@@ -4227,7 +4183,7 @@
       </c>
       <c r="G34" s="51"/>
     </row>
-    <row r="35" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="51"/>
       <c r="C35" s="49">
         <v>45170</v>
@@ -4245,7 +4201,7 @@
       </c>
       <c r="G35" s="51"/>
     </row>
-    <row r="36" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="51"/>
       <c r="C36" s="49">
         <v>45200</v>
@@ -4263,7 +4219,7 @@
       </c>
       <c r="G36" s="51"/>
     </row>
-    <row r="37" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="51"/>
       <c r="C37" s="49">
         <v>45231</v>
@@ -4281,13 +4237,13 @@
       </c>
       <c r="G37" s="51"/>
     </row>
-    <row r="38" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="51"/>
       <c r="C38" s="49">
         <v>45261</v>
       </c>
       <c r="D38" s="50">
-        <f t="shared" ref="D38:D65" si="2">$J$9*F37</f>
+        <f t="shared" si="0"/>
         <v>33.402197654383656</v>
       </c>
       <c r="E38" s="50">
@@ -4299,13 +4255,13 @@
       </c>
       <c r="G38" s="51"/>
     </row>
-    <row r="39" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="51"/>
       <c r="C39" s="49">
         <v>45292</v>
       </c>
       <c r="D39" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>34.068950401451637</v>
       </c>
       <c r="E39" s="50">
@@ -4317,13 +4273,13 @@
       </c>
       <c r="G39" s="51"/>
     </row>
-    <row r="40" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="51"/>
       <c r="C40" s="49">
         <v>45323</v>
       </c>
       <c r="D40" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>34.736536589453451</v>
       </c>
       <c r="E40" s="50">
@@ -4335,13 +4291,13 @@
       </c>
       <c r="G40" s="51"/>
     </row>
-    <row r="41" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="51"/>
       <c r="C41" s="49">
         <v>45352</v>
       </c>
       <c r="D41" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>35.404957260190265</v>
       </c>
       <c r="E41" s="50">
@@ -4353,13 +4309,13 @@
       </c>
       <c r="G41" s="51"/>
     </row>
-    <row r="42" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="51"/>
       <c r="C42" s="49">
         <v>45383</v>
       </c>
       <c r="D42" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>36.074213456765506</v>
       </c>
       <c r="E42" s="50">
@@ -4371,13 +4327,13 @@
       </c>
       <c r="G42" s="51"/>
     </row>
-    <row r="43" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="51"/>
       <c r="C43" s="49">
         <v>45413</v>
       </c>
       <c r="D43" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>36.744306223586463</v>
       </c>
       <c r="E43" s="50">
@@ -4389,13 +4345,13 @@
       </c>
       <c r="G43" s="51"/>
     </row>
-    <row r="44" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="51"/>
       <c r="C44" s="49">
         <v>45444</v>
       </c>
       <c r="D44" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>37.415236606365951</v>
       </c>
       <c r="E44" s="50">
@@ -4407,13 +4363,13 @@
       </c>
       <c r="G44" s="51"/>
     </row>
-    <row r="45" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B45" s="51"/>
       <c r="C45" s="49">
         <v>45474</v>
       </c>
       <c r="D45" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>38.087005652123906</v>
       </c>
       <c r="E45" s="50">
@@ -4425,13 +4381,13 @@
       </c>
       <c r="G45" s="51"/>
     </row>
-    <row r="46" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B46" s="51"/>
       <c r="C46" s="49">
         <v>45505</v>
       </c>
       <c r="D46" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>38.759614409189055</v>
       </c>
       <c r="E46" s="50">
@@ -4443,13 +4399,13 @@
       </c>
       <c r="G46" s="51"/>
     </row>
-    <row r="47" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B47" s="51"/>
       <c r="C47" s="49">
         <v>45536</v>
       </c>
       <c r="D47" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>39.433063927200543</v>
       </c>
       <c r="E47" s="50">
@@ -4461,13 +4417,13 @@
       </c>
       <c r="G47" s="51"/>
     </row>
-    <row r="48" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B48" s="51"/>
       <c r="C48" s="49">
         <v>45566</v>
       </c>
       <c r="D48" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>40.107355257109546</v>
       </c>
       <c r="E48" s="50">
@@ -4479,13 +4435,13 @@
       </c>
       <c r="G48" s="51"/>
     </row>
-    <row r="49" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B49" s="51"/>
       <c r="C49" s="49">
         <v>45597</v>
       </c>
       <c r="D49" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>40.782489451180929</v>
       </c>
       <c r="E49" s="50">
@@ -4497,13 +4453,13 @@
       </c>
       <c r="G49" s="51"/>
     </row>
-    <row r="50" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B50" s="51"/>
       <c r="C50" s="49">
         <v>45627</v>
       </c>
       <c r="D50" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>41.458467562994905</v>
       </c>
       <c r="E50" s="50">
@@ -4515,13 +4471,13 @@
       </c>
       <c r="G50" s="51"/>
     </row>
-    <row r="51" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B51" s="51"/>
       <c r="C51" s="49">
         <v>45658</v>
       </c>
       <c r="D51" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>42.135290647448649</v>
       </c>
       <c r="E51" s="50">
@@ -4533,13 +4489,13 @@
       </c>
       <c r="G51" s="51"/>
     </row>
-    <row r="52" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B52" s="51"/>
       <c r="C52" s="49">
         <v>45689</v>
       </c>
       <c r="D52" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>42.812959760757956</v>
       </c>
       <c r="E52" s="50">
@@ -4551,13 +4507,13 @@
       </c>
       <c r="G52" s="51"/>
     </row>
-    <row r="53" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B53" s="51"/>
       <c r="C53" s="49">
         <v>45717</v>
       </c>
       <c r="D53" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>43.491475960458899</v>
       </c>
       <c r="E53" s="50">
@@ -4569,13 +4525,13 @@
       </c>
       <c r="G53" s="51"/>
     </row>
-    <row r="54" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B54" s="51"/>
       <c r="C54" s="49">
         <v>45748</v>
       </c>
       <c r="D54" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>44.170840305409477</v>
       </c>
       <c r="E54" s="50">
@@ -4587,13 +4543,13 @@
       </c>
       <c r="G54" s="51"/>
     </row>
-    <row r="55" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B55" s="51"/>
       <c r="C55" s="49">
         <v>45778</v>
       </c>
       <c r="D55" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>44.851053855791235</v>
       </c>
       <c r="E55" s="50">
@@ -4605,13 +4561,13 @@
       </c>
       <c r="G55" s="51"/>
     </row>
-    <row r="56" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B56" s="51"/>
       <c r="C56" s="49">
         <v>45809</v>
       </c>
       <c r="D56" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>45.532117673110967</v>
       </c>
       <c r="E56" s="50">
@@ -4623,13 +4579,13 @@
       </c>
       <c r="G56" s="51"/>
     </row>
-    <row r="57" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B57" s="51"/>
       <c r="C57" s="49">
         <v>45839</v>
       </c>
       <c r="D57" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>46.214032820202355</v>
       </c>
       <c r="E57" s="50">
@@ -4641,13 +4597,13 @@
       </c>
       <c r="G57" s="51"/>
     </row>
-    <row r="58" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B58" s="51"/>
       <c r="C58" s="49">
         <v>45870</v>
       </c>
       <c r="D58" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>46.896800361227605</v>
       </c>
       <c r="E58" s="50">
@@ -4659,13 +4615,13 @@
       </c>
       <c r="G58" s="51"/>
     </row>
-    <row r="59" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B59" s="51"/>
       <c r="C59" s="49">
         <v>45901</v>
       </c>
       <c r="D59" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>47.580421361679136</v>
       </c>
       <c r="E59" s="50">
@@ -4677,13 +4633,13 @@
       </c>
       <c r="G59" s="51"/>
     </row>
-    <row r="60" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B60" s="51"/>
       <c r="C60" s="49">
         <v>45931</v>
       </c>
       <c r="D60" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>48.264896888381237</v>
       </c>
       <c r="E60" s="50">
@@ -4695,13 +4651,13 @@
       </c>
       <c r="G60" s="51"/>
     </row>
-    <row r="61" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B61" s="51"/>
       <c r="C61" s="49">
         <v>45962</v>
       </c>
       <c r="D61" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>48.95022800949171</v>
       </c>
       <c r="E61" s="50">
@@ -4713,13 +4669,13 @@
       </c>
       <c r="G61" s="51"/>
     </row>
-    <row r="62" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B62" s="51"/>
       <c r="C62" s="49">
         <v>45992</v>
       </c>
       <c r="D62" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>49.636415794503577</v>
       </c>
       <c r="E62" s="50">
@@ -4731,56 +4687,56 @@
       </c>
       <c r="G62" s="51"/>
     </row>
-    <row r="63" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B63" s="51"/>
       <c r="C63" s="49">
         <v>46023</v>
       </c>
       <c r="D63" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>50.323461314246707</v>
       </c>
       <c r="E63" s="50">
         <v>500</v>
       </c>
       <c r="F63" s="50">
-        <f t="shared" ref="F63:F65" si="3">F62+D63+E63</f>
+        <f t="shared" si="1"/>
         <v>40809.092512711613</v>
       </c>
       <c r="G63" s="51"/>
     </row>
-    <row r="64" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B64" s="51"/>
       <c r="C64" s="49">
         <v>46054</v>
       </c>
       <c r="D64" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>51.011365640889515</v>
       </c>
       <c r="E64" s="50">
         <v>500</v>
       </c>
       <c r="F64" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>41360.1038783525</v>
       </c>
       <c r="G64" s="51"/>
     </row>
-    <row r="65" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B65" s="51"/>
       <c r="C65" s="49">
         <v>46082</v>
       </c>
       <c r="D65" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>51.700129847940623</v>
       </c>
       <c r="E65" s="50">
         <v>500</v>
       </c>
       <c r="F65" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>41911.804008200437</v>
       </c>
       <c r="G65" s="51"/>
@@ -4808,14 +4764,42 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5115,36 +5099,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{082E568A-D275-4349-BB4E-0AE14394E51D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67610313-8E8D-4F0A-9821-51B850A6E13F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AB306A1-AFF6-40CB-BF3D-1EF22BB7168E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5165,26 +5140,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67610313-8E8D-4F0A-9821-51B850A6E13F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{082E568A-D275-4349-BB4E-0AE14394E51D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/spreadsheets/Family budget monthly.xlsx
+++ b/spreadsheets/Family budget monthly.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35C3E1D-0E4D-42AD-BCA1-842F43FAA3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021A629F-5D0F-40D9-B2DF-8C1D720FAD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1886" yWindow="1886" windowWidth="16628" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly budget report" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Interest" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_TEMP.xlsxTBL_MonthlyExpenses" hidden="1">TBL_MonthlyExpenses[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TEMP.xlsxTBL_MonthlyExpenses1" hidden="1">TBL_MonthlyExpenses[]</definedName>
     <definedName name="List_ExpenseCategories">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Monthly expenses'!$2:$4</definedName>
   </definedNames>
@@ -59,7 +59,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="TBL_MonthlyExpenses" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TEMP.xlsxTBL_MonthlyExpenses"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TEMP.xlsxTBL_MonthlyExpenses1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -1851,8 +1851,8 @@
   </sheetPr>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2074,10 +2074,7 @@
       <c r="C11" s="35"/>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="24">
-        <f>SUM(F7:F10)</f>
-        <v>200</v>
-      </c>
+      <c r="F11" s="24"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -2210,10 +2207,7 @@
       <c r="C18" s="38"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
-      <c r="F18" s="27">
-        <f>SUM(F15:F17)</f>
-        <v>100</v>
-      </c>
+      <c r="F18" s="27"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -4771,35 +4765,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5099,27 +5064,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{082E568A-D275-4349-BB4E-0AE14394E51D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67610313-8E8D-4F0A-9821-51B850A6E13F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AB306A1-AFF6-40CB-BF3D-1EF22BB7168E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5140,6 +5114,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67610313-8E8D-4F0A-9821-51B850A6E13F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{082E568A-D275-4349-BB4E-0AE14394E51D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>